--- a/Tennis/WTA Tour/Kim Clijsters.xlsx
+++ b/Tennis/WTA Tour/Kim Clijsters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3354" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFE2FF7F-562F-49BE-8642-CE75793BEA33}"/>
+  <xr:revisionPtr revIDLastSave="3355" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E132F77F-E923-46B8-B058-03255C8D9824}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="23" activeTab="27" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="23" activeTab="23" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="1997" sheetId="3" r:id="rId1"/>
@@ -4421,7 +4421,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{207F744F-61CD-4575-A5D1-332BE404724A}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4477,7 +4477,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8667750" cy="6296025"/>
+    <xdr:ext cx="8656320" cy="6278880"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4504,10 +4504,6 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4812,21 +4808,21 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -4846,7 +4842,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>258</v>
       </c>
@@ -4866,7 +4862,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -4880,7 +4876,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -4908,21 +4904,21 @@
   </sheetPr>
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -4942,7 +4938,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>242</v>
       </c>
@@ -4962,7 +4958,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -4976,7 +4972,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -4996,7 +4992,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>37</v>
       </c>
@@ -5010,7 +5006,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -5024,7 +5020,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -5038,7 +5034,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -5052,7 +5048,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>0</v>
       </c>
@@ -5066,8 +5062,8 @@
         <v>496</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>460</v>
       </c>
@@ -5087,7 +5083,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>2</v>
       </c>
@@ -5101,7 +5097,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>0</v>
       </c>
@@ -5115,7 +5111,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>71</v>
       </c>
@@ -5129,7 +5125,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>217</v>
       </c>
@@ -5149,7 +5145,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>236</v>
       </c>
@@ -5166,7 +5162,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>168</v>
       </c>
@@ -5177,7 +5173,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>474</v>
       </c>
@@ -5197,7 +5193,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>2</v>
       </c>
@@ -5211,7 +5207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>0</v>
       </c>
@@ -5225,7 +5221,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>71</v>
       </c>
@@ -5239,7 +5235,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -5259,7 +5255,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -5273,7 +5269,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>53</v>
       </c>
@@ -5293,7 +5289,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>37</v>
       </c>
@@ -5307,7 +5303,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>4</v>
       </c>
@@ -5321,7 +5317,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -5335,7 +5331,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -5349,7 +5345,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>0</v>
       </c>
@@ -5363,7 +5359,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>243</v>
       </c>
@@ -5383,7 +5379,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>2</v>
       </c>
@@ -5397,7 +5393,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>0</v>
       </c>
@@ -5411,7 +5407,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>59</v>
       </c>
@@ -5431,7 +5427,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>37</v>
       </c>
@@ -5445,7 +5441,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>4</v>
       </c>
@@ -5459,7 +5455,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -5473,7 +5469,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>2</v>
       </c>
@@ -5487,7 +5483,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>0</v>
       </c>
@@ -5501,7 +5497,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>236</v>
       </c>
@@ -5518,7 +5514,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
         <v>514</v>
       </c>
@@ -5529,7 +5525,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>194</v>
       </c>
@@ -5549,7 +5545,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>2</v>
       </c>
@@ -5563,7 +5559,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>0</v>
       </c>
@@ -5577,7 +5573,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>71</v>
       </c>
@@ -5591,7 +5587,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>161</v>
       </c>
@@ -5611,7 +5607,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>3</v>
       </c>
@@ -5625,7 +5621,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>2</v>
       </c>
@@ -5639,7 +5635,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>0</v>
       </c>
@@ -5653,7 +5649,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>71</v>
       </c>
@@ -5667,7 +5663,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>423</v>
       </c>
@@ -5687,7 +5683,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>465</v>
       </c>
@@ -5707,7 +5703,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>3</v>
       </c>
@@ -5721,7 +5717,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>2</v>
       </c>
@@ -5735,7 +5731,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>0</v>
       </c>
@@ -5749,7 +5745,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>71</v>
       </c>
@@ -5763,7 +5759,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>233</v>
       </c>
@@ -5783,7 +5779,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>116</v>
       </c>
@@ -5797,7 +5793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>116</v>
       </c>
@@ -5811,7 +5807,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>0</v>
       </c>
@@ -5838,21 +5834,21 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -5872,7 +5868,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>242</v>
       </c>
@@ -5892,7 +5888,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -5906,7 +5902,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -5920,7 +5916,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>71</v>
       </c>
@@ -5934,7 +5930,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -5954,7 +5950,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>37</v>
       </c>
@@ -5968,7 +5964,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -5982,7 +5978,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -5996,7 +5992,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -6010,7 +6006,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -6024,7 +6020,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>460</v>
       </c>
@@ -6044,7 +6040,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -6058,7 +6054,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -6072,7 +6068,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>71</v>
       </c>
@@ -6086,7 +6082,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>217</v>
       </c>
@@ -6106,7 +6102,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -6120,7 +6116,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -6134,7 +6130,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>474</v>
       </c>
@@ -6167,21 +6163,21 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -6201,7 +6197,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>237</v>
       </c>
@@ -6235,21 +6231,21 @@
   </sheetPr>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -6269,7 +6265,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>249</v>
       </c>
@@ -6289,7 +6285,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>4</v>
       </c>
@@ -6303,7 +6299,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>3</v>
       </c>
@@ -6317,7 +6313,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>2</v>
       </c>
@@ -6331,7 +6327,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>423</v>
       </c>
@@ -6351,7 +6347,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -6365,7 +6361,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -6379,7 +6375,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -6399,7 +6395,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>37</v>
       </c>
@@ -6413,7 +6409,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>4</v>
       </c>
@@ -6427,7 +6423,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -6441,7 +6437,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -6455,7 +6451,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -6469,7 +6465,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>71</v>
       </c>
@@ -6483,7 +6479,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>316</v>
       </c>
@@ -6503,7 +6499,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -6531,21 +6527,21 @@
   </sheetPr>
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -6565,7 +6561,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>214</v>
       </c>
@@ -6585,7 +6581,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -6599,7 +6595,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -6613,7 +6609,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -6627,7 +6623,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>71</v>
       </c>
@@ -6641,7 +6637,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -6661,7 +6657,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>37</v>
       </c>
@@ -6675,7 +6671,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -6689,7 +6685,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>251</v>
       </c>
@@ -6709,7 +6705,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>4</v>
       </c>
@@ -6723,7 +6719,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>217</v>
       </c>
@@ -6743,7 +6739,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -6757,7 +6753,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -6771,7 +6767,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -6785,7 +6781,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>0</v>
       </c>
@@ -6799,7 +6795,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>71</v>
       </c>
@@ -6813,7 +6809,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>201</v>
       </c>
@@ -6833,7 +6829,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -6847,7 +6843,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>236</v>
       </c>
@@ -6864,7 +6860,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>243</v>
       </c>
@@ -6884,7 +6880,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -6898,7 +6894,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>2</v>
       </c>
@@ -6912,7 +6908,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>59</v>
       </c>
@@ -6932,7 +6928,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>37</v>
       </c>
@@ -6946,7 +6942,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>4</v>
       </c>
@@ -6960,7 +6956,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -6974,7 +6970,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>2</v>
       </c>
@@ -6988,7 +6984,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>249</v>
       </c>
@@ -7008,7 +7004,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -7022,7 +7018,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -7036,7 +7032,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>0</v>
       </c>
@@ -7050,7 +7046,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>71</v>
       </c>
@@ -7064,7 +7060,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>65</v>
       </c>
@@ -7084,7 +7080,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>37</v>
       </c>
@@ -7098,7 +7094,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>4</v>
       </c>
@@ -7112,7 +7108,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -7126,7 +7122,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>2</v>
       </c>
@@ -7140,7 +7136,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>0</v>
       </c>
@@ -7154,7 +7150,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>71</v>
       </c>
@@ -7168,7 +7164,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>233</v>
       </c>
@@ -7188,7 +7184,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>116</v>
       </c>
@@ -7202,7 +7198,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>116</v>
       </c>
@@ -7216,7 +7212,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>0</v>
       </c>
@@ -7230,7 +7226,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>71</v>
       </c>
@@ -7257,21 +7253,21 @@
   </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -7291,7 +7287,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>242</v>
       </c>
@@ -7311,7 +7307,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -7325,7 +7321,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -7339,7 +7335,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -7353,7 +7349,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>71</v>
       </c>
@@ -7367,7 +7363,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -7387,7 +7383,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>37</v>
       </c>
@@ -7401,7 +7397,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -7415,7 +7411,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -7429,7 +7425,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -7443,7 +7439,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>0</v>
       </c>
@@ -7457,7 +7453,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>71</v>
       </c>
@@ -7471,7 +7467,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>236</v>
       </c>
@@ -7488,7 +7484,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>560</v>
       </c>
@@ -7499,7 +7495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>196</v>
       </c>
@@ -7519,7 +7515,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>2</v>
       </c>
@@ -7533,7 +7529,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>0</v>
       </c>
@@ -7547,7 +7543,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>71</v>
       </c>
@@ -7561,7 +7557,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>251</v>
       </c>
@@ -7581,7 +7577,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>4</v>
       </c>
@@ -7595,7 +7591,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -7609,7 +7605,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>217</v>
       </c>
@@ -7629,7 +7625,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>4</v>
       </c>
@@ -7643,7 +7639,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -7657,7 +7653,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>2</v>
       </c>
@@ -7671,7 +7667,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>53</v>
       </c>
@@ -7691,7 +7687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>37</v>
       </c>
@@ -7705,7 +7701,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>346</v>
       </c>
@@ -7725,7 +7721,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -7739,7 +7735,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>423</v>
       </c>
@@ -7772,21 +7768,21 @@
   </sheetPr>
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E34" activeCellId="5" sqref="E5 E12 E16 E26 E31 E34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -7806,7 +7802,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>214</v>
       </c>
@@ -7826,7 +7822,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -7840,7 +7836,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -7854,7 +7850,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -7868,7 +7864,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -7888,7 +7884,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>37</v>
       </c>
@@ -7902,7 +7898,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -7916,7 +7912,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -7930,7 +7926,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -7944,7 +7940,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -7958,7 +7954,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>217</v>
       </c>
@@ -7978,7 +7974,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>37</v>
       </c>
@@ -7992,7 +7988,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -8006,7 +8002,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>346</v>
       </c>
@@ -8026,7 +8022,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -8040,7 +8036,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>2</v>
       </c>
@@ -8054,7 +8050,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>0</v>
       </c>
@@ -8068,7 +8064,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>59</v>
       </c>
@@ -8088,7 +8084,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>37</v>
       </c>
@@ -8102,7 +8098,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>4</v>
       </c>
@@ -8116,7 +8112,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -8130,7 +8126,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>585</v>
       </c>
@@ -8150,7 +8146,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>4</v>
       </c>
@@ -8164,7 +8160,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -8178,7 +8174,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>2</v>
       </c>
@@ -8192,7 +8188,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -8212,7 +8208,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>37</v>
       </c>
@@ -8240,21 +8236,21 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -8274,7 +8270,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>237</v>
       </c>
@@ -8308,21 +8304,21 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -8342,7 +8338,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>237</v>
       </c>
@@ -8375,21 +8371,21 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -8409,7 +8405,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>237</v>
       </c>
@@ -8442,21 +8438,21 @@
   </sheetPr>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -8476,7 +8472,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>263</v>
       </c>
@@ -8496,7 +8492,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -8510,7 +8506,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -8524,7 +8520,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -8538,7 +8534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>71</v>
       </c>
@@ -8552,7 +8548,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>258</v>
       </c>
@@ -8572,7 +8568,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -8586,7 +8582,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -8600,7 +8596,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -8614,7 +8610,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>71</v>
       </c>
@@ -8628,7 +8624,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>263</v>
       </c>
@@ -8648,7 +8644,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -8662,7 +8658,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>277</v>
       </c>
@@ -8682,7 +8678,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>7</v>
       </c>
@@ -8696,7 +8692,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>6</v>
       </c>
@@ -8710,7 +8706,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -8724,7 +8720,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -8738,7 +8734,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -8766,21 +8762,21 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -8800,7 +8796,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>237</v>
       </c>
@@ -8833,21 +8829,21 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -8867,7 +8863,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>237</v>
       </c>
@@ -8900,21 +8896,21 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -8934,7 +8930,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>237</v>
       </c>
@@ -8967,21 +8963,21 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -9001,7 +8997,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>237</v>
       </c>
@@ -9034,21 +9030,21 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -9068,7 +9064,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>235</v>
       </c>
@@ -9088,11 +9084,11 @@
         <v>256</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>257</v>
       </c>
@@ -9112,11 +9108,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -9149,21 +9145,21 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -9183,7 +9179,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>252</v>
       </c>
@@ -9203,7 +9199,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>251</v>
       </c>
@@ -9236,22 +9232,22 @@
   </sheetPr>
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>229</v>
       </c>
@@ -9271,7 +9267,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1997</v>
       </c>
@@ -9293,7 +9289,7 @@
       </c>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1998</v>
       </c>
@@ -9314,7 +9310,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1999</v>
       </c>
@@ -9335,7 +9331,7 @@
         <v>0.77500000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2000</v>
       </c>
@@ -9356,7 +9352,7 @@
         <v>0.43333333333333335</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2001</v>
       </c>
@@ -9377,7 +9373,7 @@
         <v>0.69090909090909092</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2002</v>
       </c>
@@ -9398,7 +9394,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2003</v>
       </c>
@@ -9419,7 +9415,7 @@
         <v>0.8666666666666667</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2004</v>
       </c>
@@ -9440,7 +9436,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2005</v>
       </c>
@@ -9462,7 +9458,7 @@
       </c>
       <c r="N10" s="7"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2006</v>
       </c>
@@ -9484,7 +9480,7 @@
       </c>
       <c r="N11" s="7"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2007</v>
       </c>
@@ -9506,7 +9502,7 @@
       </c>
       <c r="N12" s="7"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2008</v>
       </c>
@@ -9528,7 +9524,7 @@
       </c>
       <c r="N13" s="7"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2009</v>
       </c>
@@ -9550,7 +9546,7 @@
       </c>
       <c r="N14" s="7"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2010</v>
       </c>
@@ -9571,7 +9567,7 @@
         <v>0.84210526315789469</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2011</v>
       </c>
@@ -9592,7 +9588,7 @@
         <v>0.69565217391304346</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2012</v>
       </c>
@@ -9613,7 +9609,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2013</v>
       </c>
@@ -9634,7 +9630,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2014</v>
       </c>
@@ -9655,7 +9651,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2015</v>
       </c>
@@ -9676,7 +9672,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2016</v>
       </c>
@@ -9697,7 +9693,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2017</v>
       </c>
@@ -9718,7 +9714,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2018</v>
       </c>
@@ -9739,7 +9735,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2019</v>
       </c>
@@ -9760,7 +9756,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2020</v>
       </c>
@@ -9781,7 +9777,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2021</v>
       </c>
@@ -9802,7 +9798,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>128</v>
       </c>
@@ -9827,7 +9823,7 @@
         <v>0.75096525096525102</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>246</v>
       </c>
@@ -9874,21 +9870,21 @@
   </sheetPr>
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -9908,7 +9904,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>285</v>
       </c>
@@ -9928,7 +9924,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -9942,7 +9938,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -9956,7 +9952,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -9970,7 +9966,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>71</v>
       </c>
@@ -9984,7 +9980,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>290</v>
       </c>
@@ -10004,7 +10000,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>7</v>
       </c>
@@ -10018,7 +10014,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>6</v>
       </c>
@@ -10032,7 +10028,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>4</v>
       </c>
@@ -10046,7 +10042,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>3</v>
       </c>
@@ -10060,7 +10056,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>2</v>
       </c>
@@ -10074,7 +10070,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>0</v>
       </c>
@@ -10088,7 +10084,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>71</v>
       </c>
@@ -10102,7 +10098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>300</v>
       </c>
@@ -10122,7 +10118,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -10136,7 +10132,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>2</v>
       </c>
@@ -10150,7 +10146,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>0</v>
       </c>
@@ -10164,7 +10160,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>306</v>
       </c>
@@ -10184,7 +10180,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>7</v>
       </c>
@@ -10198,7 +10194,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>6</v>
       </c>
@@ -10212,7 +10208,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>4</v>
       </c>
@@ -10226,7 +10222,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -10240,7 +10236,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -10254,7 +10250,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>59</v>
       </c>
@@ -10274,7 +10270,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>7</v>
       </c>
@@ -10288,7 +10284,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>6</v>
       </c>
@@ -10302,7 +10298,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>36</v>
       </c>
@@ -10316,7 +10312,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>37</v>
       </c>
@@ -10330,7 +10326,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>4</v>
       </c>
@@ -10344,7 +10340,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -10358,7 +10354,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>313</v>
       </c>
@@ -10378,7 +10374,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>65</v>
       </c>
@@ -10398,7 +10394,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>37</v>
       </c>
@@ -10412,7 +10408,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>4</v>
       </c>
@@ -10426,7 +10422,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>316</v>
       </c>
@@ -10446,7 +10442,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>7</v>
       </c>
@@ -10460,7 +10456,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>6</v>
       </c>
@@ -10474,7 +10470,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>4</v>
       </c>
@@ -10488,7 +10484,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -10502,7 +10498,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>2</v>
       </c>
@@ -10516,7 +10512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>0</v>
       </c>
@@ -10530,7 +10526,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>71</v>
       </c>
@@ -10544,7 +10540,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>322</v>
       </c>
@@ -10564,7 +10560,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -10578,7 +10574,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>2</v>
       </c>
@@ -10592,7 +10588,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>0</v>
       </c>
@@ -10606,7 +10602,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>71</v>
       </c>
@@ -10620,7 +10616,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>326</v>
       </c>
@@ -10640,7 +10636,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>327</v>
       </c>
@@ -10673,21 +10669,21 @@
   </sheetPr>
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -10707,7 +10703,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>234</v>
       </c>
@@ -10727,7 +10723,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -10741,7 +10737,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -10755,7 +10751,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -10769,7 +10765,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>71</v>
       </c>
@@ -10783,7 +10779,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -10803,7 +10799,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>90</v>
       </c>
@@ -10823,7 +10819,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -10837,7 +10833,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>251</v>
       </c>
@@ -10857,7 +10853,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>4</v>
       </c>
@@ -10871,7 +10867,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -10885,7 +10881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>217</v>
       </c>
@@ -10905,7 +10901,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -10919,7 +10915,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -10933,7 +10929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>236</v>
       </c>
@@ -10950,7 +10946,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>50</v>
       </c>
@@ -10961,7 +10957,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>342</v>
       </c>
@@ -10972,7 +10968,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>343</v>
       </c>
@@ -10992,7 +10988,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -11006,7 +11002,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -11026,7 +11022,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>346</v>
       </c>
@@ -11046,7 +11042,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>3</v>
       </c>
@@ -11060,7 +11056,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>59</v>
       </c>
@@ -11080,7 +11076,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>36</v>
       </c>
@@ -11094,7 +11090,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>194</v>
       </c>
@@ -11114,7 +11110,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>161</v>
       </c>
@@ -11134,7 +11130,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>351</v>
       </c>
@@ -11154,7 +11150,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -11168,7 +11164,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>2</v>
       </c>
@@ -11182,7 +11178,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>65</v>
       </c>
@@ -11202,7 +11198,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>37</v>
       </c>
@@ -11216,7 +11212,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>316</v>
       </c>
@@ -11236,7 +11232,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>3</v>
       </c>
@@ -11250,7 +11246,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>2</v>
       </c>
@@ -11264,7 +11260,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>245</v>
       </c>
@@ -11284,7 +11280,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -11298,7 +11294,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>2</v>
       </c>
@@ -11312,7 +11308,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>0</v>
       </c>
@@ -11326,7 +11322,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>71</v>
       </c>
@@ -11340,7 +11336,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>239</v>
       </c>
@@ -11360,7 +11356,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>3</v>
       </c>
@@ -11374,7 +11370,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>2</v>
       </c>
@@ -11388,7 +11384,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>0</v>
       </c>
@@ -11402,7 +11398,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>71</v>
       </c>
@@ -11416,7 +11412,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>233</v>
       </c>
@@ -11436,7 +11432,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>2</v>
       </c>
@@ -11450,7 +11446,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>236</v>
       </c>
@@ -11480,21 +11476,21 @@
   </sheetPr>
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -11514,7 +11510,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>242</v>
       </c>
@@ -11534,7 +11530,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -11548,7 +11544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -11568,7 +11564,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>37</v>
       </c>
@@ -11582,7 +11578,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -11596,7 +11592,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -11610,7 +11606,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>120</v>
       </c>
@@ -11630,7 +11626,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -11644,7 +11640,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>251</v>
       </c>
@@ -11664,7 +11660,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>4</v>
       </c>
@@ -11678,7 +11674,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -11692,7 +11688,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>2</v>
       </c>
@@ -11706,7 +11702,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>0</v>
       </c>
@@ -11720,7 +11716,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>71</v>
       </c>
@@ -11734,8 +11730,8 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>217</v>
       </c>
@@ -11755,7 +11751,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -11769,7 +11765,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>3</v>
       </c>
@@ -11783,8 +11779,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>373</v>
       </c>
@@ -11804,7 +11800,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -11818,7 +11814,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>0</v>
       </c>
@@ -11832,7 +11828,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>376</v>
       </c>
@@ -11852,7 +11848,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -11872,7 +11868,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -11892,7 +11888,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>37</v>
       </c>
@@ -11906,7 +11902,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>4</v>
       </c>
@@ -11920,7 +11916,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -11934,7 +11930,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -11948,7 +11944,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>0</v>
       </c>
@@ -11962,7 +11958,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>71</v>
       </c>
@@ -11976,7 +11972,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>346</v>
       </c>
@@ -11996,7 +11992,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>2</v>
       </c>
@@ -12010,7 +12006,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>0</v>
       </c>
@@ -12024,7 +12020,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>71</v>
       </c>
@@ -12038,7 +12034,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>59</v>
       </c>
@@ -12058,7 +12054,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>37</v>
       </c>
@@ -12072,7 +12068,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>4</v>
       </c>
@@ -12086,7 +12082,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>3</v>
       </c>
@@ -12100,7 +12096,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>2</v>
       </c>
@@ -12114,7 +12110,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>390</v>
       </c>
@@ -12134,7 +12130,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -12148,7 +12144,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>2</v>
       </c>
@@ -12162,7 +12158,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>0</v>
       </c>
@@ -12176,7 +12172,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>194</v>
       </c>
@@ -12196,7 +12192,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>2</v>
       </c>
@@ -12210,7 +12206,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>0</v>
       </c>
@@ -12224,7 +12220,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>71</v>
       </c>
@@ -12238,7 +12234,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>393</v>
       </c>
@@ -12258,7 +12254,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>394</v>
       </c>
@@ -12278,7 +12274,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>3</v>
       </c>
@@ -12292,7 +12288,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>2</v>
       </c>
@@ -12306,7 +12302,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>351</v>
       </c>
@@ -12326,7 +12322,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>2</v>
       </c>
@@ -12340,7 +12336,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>0</v>
       </c>
@@ -12354,7 +12350,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>65</v>
       </c>
@@ -12374,7 +12370,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>37</v>
       </c>
@@ -12388,7 +12384,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>4</v>
       </c>
@@ -12402,7 +12398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>3</v>
       </c>
@@ -12416,7 +12412,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>2</v>
       </c>
@@ -12430,7 +12426,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>98</v>
       </c>
@@ -12450,7 +12446,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>2</v>
       </c>
@@ -12464,7 +12460,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>0</v>
       </c>
@@ -12478,7 +12474,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>239</v>
       </c>
@@ -12498,7 +12494,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>2</v>
       </c>
@@ -12512,7 +12508,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>0</v>
       </c>
@@ -12526,7 +12522,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>71</v>
       </c>
@@ -12540,7 +12536,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>245</v>
       </c>
@@ -12560,7 +12556,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>316</v>
       </c>
@@ -12580,7 +12576,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>2</v>
       </c>
@@ -12594,7 +12590,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>0</v>
       </c>
@@ -12608,7 +12604,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>71</v>
       </c>
@@ -12622,7 +12618,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>233</v>
       </c>
@@ -12642,7 +12638,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>2</v>
       </c>
@@ -12656,7 +12652,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>0</v>
       </c>
@@ -12670,7 +12666,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>236</v>
       </c>
@@ -12700,21 +12696,21 @@
   </sheetPr>
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -12734,7 +12730,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>242</v>
       </c>
@@ -12754,7 +12750,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -12768,7 +12764,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -12782,7 +12778,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -12802,7 +12798,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>37</v>
       </c>
@@ -12816,7 +12812,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -12830,7 +12826,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -12844,7 +12840,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -12858,7 +12854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -12872,7 +12868,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>251</v>
       </c>
@@ -12892,7 +12888,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>217</v>
       </c>
@@ -12912,7 +12908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -12926,7 +12922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -12940,7 +12936,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -12954,7 +12950,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>236</v>
       </c>
@@ -12971,7 +12967,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>409</v>
       </c>
@@ -12991,7 +12987,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>2</v>
       </c>
@@ -13005,7 +13001,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>0</v>
       </c>
@@ -13019,7 +13015,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>71</v>
       </c>
@@ -13033,7 +13029,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>376</v>
       </c>
@@ -13053,7 +13049,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -13073,7 +13069,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -13087,7 +13083,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>2</v>
       </c>
@@ -13101,7 +13097,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>0</v>
       </c>
@@ -13115,7 +13111,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -13135,7 +13131,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>37</v>
       </c>
@@ -13149,7 +13145,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>4</v>
       </c>
@@ -13163,7 +13159,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>346</v>
       </c>
@@ -13183,7 +13179,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -13197,7 +13193,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>59</v>
       </c>
@@ -13217,7 +13213,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>37</v>
       </c>
@@ -13231,7 +13227,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>194</v>
       </c>
@@ -13251,7 +13247,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>2</v>
       </c>
@@ -13265,7 +13261,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>0</v>
       </c>
@@ -13279,7 +13275,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>71</v>
       </c>
@@ -13293,7 +13289,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>161</v>
       </c>
@@ -13313,7 +13309,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>3</v>
       </c>
@@ -13327,7 +13323,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>2</v>
       </c>
@@ -13341,7 +13337,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>448</v>
       </c>
@@ -13361,7 +13357,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>423</v>
       </c>
@@ -13381,7 +13377,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -13395,7 +13391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>65</v>
       </c>
@@ -13415,7 +13411,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>37</v>
       </c>
@@ -13429,7 +13425,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>4</v>
       </c>
@@ -13443,7 +13439,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -13457,7 +13453,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>98</v>
       </c>
@@ -13477,7 +13473,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>2</v>
       </c>
@@ -13491,7 +13487,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>0</v>
       </c>
@@ -13505,7 +13501,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>71</v>
       </c>
@@ -13519,7 +13515,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>239</v>
       </c>
@@ -13539,7 +13535,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>2</v>
       </c>
@@ -13553,7 +13549,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>0</v>
       </c>
@@ -13567,7 +13563,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>245</v>
       </c>
@@ -13587,7 +13583,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>3</v>
       </c>
@@ -13601,7 +13597,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>2</v>
       </c>
@@ -13615,7 +13611,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>0</v>
       </c>
@@ -13629,7 +13625,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>71</v>
       </c>
@@ -13643,7 +13639,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>431</v>
       </c>
@@ -13663,7 +13659,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>3</v>
       </c>
@@ -13677,7 +13673,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>2</v>
       </c>
@@ -13691,7 +13687,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>316</v>
       </c>
@@ -13711,7 +13707,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>2</v>
       </c>
@@ -13725,7 +13721,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>0</v>
       </c>
@@ -13739,7 +13735,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>71</v>
       </c>
@@ -13753,7 +13749,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>233</v>
       </c>
@@ -13773,7 +13769,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>2</v>
       </c>
@@ -13787,7 +13783,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>0</v>
       </c>
@@ -13801,7 +13797,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>71</v>
       </c>
@@ -13828,21 +13824,21 @@
   </sheetPr>
   <dimension ref="A1:F125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -13862,7 +13858,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>242</v>
       </c>
@@ -13882,7 +13878,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -13896,7 +13892,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
@@ -13912,7 +13908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
@@ -13928,7 +13924,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -13948,7 +13944,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>37</v>
       </c>
@@ -13962,7 +13958,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -13976,7 +13972,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -13990,7 +13986,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -14004,7 +14000,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -14018,8 +14014,8 @@
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>460</v>
       </c>
@@ -14039,7 +14035,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -14053,7 +14049,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -14067,7 +14063,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>71</v>
       </c>
@@ -14081,7 +14077,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>120</v>
       </c>
@@ -14101,7 +14097,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>2</v>
       </c>
@@ -14115,7 +14111,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>0</v>
       </c>
@@ -14129,7 +14125,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>71</v>
       </c>
@@ -14143,7 +14139,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>251</v>
       </c>
@@ -14163,7 +14159,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>4</v>
       </c>
@@ -14177,7 +14173,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -14191,7 +14187,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -14205,7 +14201,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -14219,7 +14215,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>71</v>
       </c>
@@ -14233,7 +14229,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>217</v>
       </c>
@@ -14253,7 +14249,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>4</v>
       </c>
@@ -14267,7 +14263,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -14281,7 +14277,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -14295,7 +14291,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>0</v>
       </c>
@@ -14309,7 +14305,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>236</v>
       </c>
@@ -14326,7 +14322,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D38" t="s">
         <v>305</v>
       </c>
@@ -14337,7 +14333,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>376</v>
       </c>
@@ -14357,7 +14353,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -14371,7 +14367,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>2</v>
       </c>
@@ -14385,7 +14381,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>0</v>
       </c>
@@ -14399,7 +14395,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>71</v>
       </c>
@@ -14413,7 +14409,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -14433,7 +14429,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -14447,7 +14443,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>2</v>
       </c>
@@ -14461,7 +14457,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>0</v>
       </c>
@@ -14475,7 +14471,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>71</v>
       </c>
@@ -14489,7 +14485,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -14509,7 +14505,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>37</v>
       </c>
@@ -14523,7 +14519,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>4</v>
       </c>
@@ -14537,7 +14533,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -14551,7 +14547,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>2</v>
       </c>
@@ -14565,7 +14561,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>0</v>
       </c>
@@ -14579,7 +14575,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>71</v>
       </c>
@@ -14593,7 +14589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>346</v>
       </c>
@@ -14613,7 +14609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>2</v>
       </c>
@@ -14627,7 +14623,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>0</v>
       </c>
@@ -14641,7 +14637,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>71</v>
       </c>
@@ -14655,8 +14651,8 @@
         <v>441</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>59</v>
       </c>
@@ -14676,7 +14672,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>37</v>
       </c>
@@ -14690,7 +14686,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>4</v>
       </c>
@@ -14704,7 +14700,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -14718,7 +14714,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>2</v>
       </c>
@@ -14732,7 +14728,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>0</v>
       </c>
@@ -14746,7 +14742,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>236</v>
       </c>
@@ -14763,7 +14759,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D73" t="s">
         <v>446</v>
       </c>
@@ -14774,7 +14770,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>194</v>
       </c>
@@ -14794,7 +14790,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>2</v>
       </c>
@@ -14808,7 +14804,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>0</v>
       </c>
@@ -14822,7 +14818,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>71</v>
       </c>
@@ -14836,7 +14832,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>161</v>
       </c>
@@ -14856,7 +14852,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>3</v>
       </c>
@@ -14870,7 +14866,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>2</v>
       </c>
@@ -14884,7 +14880,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>0</v>
       </c>
@@ -14898,7 +14894,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>71</v>
       </c>
@@ -14912,7 +14908,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>448</v>
       </c>
@@ -14932,7 +14928,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>3</v>
       </c>
@@ -14946,7 +14942,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>2</v>
       </c>
@@ -14960,7 +14956,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>0</v>
       </c>
@@ -14974,7 +14970,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>71</v>
       </c>
@@ -14988,7 +14984,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>423</v>
       </c>
@@ -15008,7 +15004,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>3</v>
       </c>
@@ -15022,7 +15018,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>65</v>
       </c>
@@ -15042,7 +15038,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
         <v>37</v>
       </c>
@@ -15056,7 +15052,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>4</v>
       </c>
@@ -15070,7 +15066,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>3</v>
       </c>
@@ -15084,7 +15080,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>2</v>
       </c>
@@ -15098,7 +15094,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
         <v>0</v>
       </c>
@@ -15112,7 +15108,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
         <v>71</v>
       </c>
@@ -15126,7 +15122,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>239</v>
       </c>
@@ -15146,7 +15142,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
         <v>2</v>
       </c>
@@ -15160,7 +15156,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C105" t="s">
         <v>0</v>
       </c>
@@ -15174,7 +15170,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>245</v>
       </c>
@@ -15194,7 +15190,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C108" t="s">
         <v>2</v>
       </c>
@@ -15208,7 +15204,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C109" t="s">
         <v>0</v>
       </c>
@@ -15222,7 +15218,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C110" t="s">
         <v>71</v>
       </c>
@@ -15236,7 +15232,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>431</v>
       </c>
@@ -15256,7 +15252,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C113" t="s">
         <v>2</v>
       </c>
@@ -15270,7 +15266,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C114" t="s">
         <v>0</v>
       </c>
@@ -15284,7 +15280,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>316</v>
       </c>
@@ -15304,7 +15300,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C117" t="s">
         <v>2</v>
       </c>
@@ -15318,7 +15314,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C118" t="s">
         <v>0</v>
       </c>
@@ -15332,7 +15328,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C119" t="s">
         <v>71</v>
       </c>
@@ -15346,7 +15342,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>233</v>
       </c>
@@ -15366,7 +15362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C122" t="s">
         <v>116</v>
       </c>
@@ -15380,7 +15376,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C123" t="s">
         <v>116</v>
       </c>
@@ -15394,7 +15390,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C124" t="s">
         <v>0</v>
       </c>
@@ -15408,7 +15404,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C125" t="s">
         <v>71</v>
       </c>
@@ -15436,21 +15432,21 @@
   </sheetPr>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -15470,7 +15466,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -15490,7 +15486,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>37</v>
       </c>
@@ -15504,7 +15500,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -15518,7 +15514,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -15532,7 +15528,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -15546,7 +15542,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -15560,7 +15556,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>71</v>
       </c>
@@ -15574,7 +15570,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>459</v>
       </c>
@@ -15594,7 +15590,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -15608,7 +15604,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -15622,7 +15618,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>71</v>
       </c>
@@ -15636,7 +15632,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>460</v>
       </c>
@@ -15656,7 +15652,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>2</v>
       </c>
@@ -15670,7 +15666,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>0</v>
       </c>
@@ -15684,7 +15680,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>71</v>
       </c>
@@ -15698,7 +15694,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>251</v>
       </c>
@@ -15718,7 +15714,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -15732,7 +15728,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>236</v>
       </c>
@@ -15749,7 +15745,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>463</v>
       </c>
@@ -15760,7 +15756,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>376</v>
       </c>
@@ -15780,7 +15776,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -15794,7 +15790,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>465</v>
       </c>
@@ -15814,7 +15810,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -15828,7 +15824,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>0</v>
       </c>
@@ -15856,21 +15852,21 @@
   </sheetPr>
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -15890,7 +15886,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>460</v>
       </c>
@@ -15910,7 +15906,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>4</v>
       </c>
@@ -15924,7 +15920,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -15938,7 +15934,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>251</v>
       </c>
@@ -15958,7 +15954,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>37</v>
       </c>
@@ -15972,7 +15968,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -15986,7 +15982,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -16000,7 +15996,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -16014,7 +16010,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -16028,7 +16024,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>71</v>
       </c>
@@ -16042,7 +16038,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>217</v>
       </c>
@@ -16062,7 +16058,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>37</v>
       </c>
@@ -16076,7 +16072,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -16090,7 +16086,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -16104,7 +16100,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -16118,7 +16114,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>0</v>
       </c>
@@ -16132,7 +16128,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>71</v>
       </c>
@@ -16146,7 +16142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>474</v>
       </c>
@@ -16166,7 +16162,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -16180,7 +16176,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -16194,7 +16190,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>0</v>
       </c>
@@ -16208,8 +16204,8 @@
         <v>475</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>376</v>
       </c>
@@ -16229,7 +16225,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -16243,7 +16239,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -16257,7 +16253,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>53</v>
       </c>
@@ -16277,7 +16273,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>37</v>
       </c>
@@ -16291,7 +16287,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>4</v>
       </c>
@@ -16305,7 +16301,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -16319,7 +16315,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>243</v>
       </c>
@@ -16339,7 +16335,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -16353,7 +16349,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>2</v>
       </c>
@@ -16367,7 +16363,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>0</v>
       </c>
@@ -16381,7 +16377,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>71</v>
       </c>
@@ -16395,7 +16391,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -16415,7 +16411,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>37</v>
       </c>
@@ -16429,7 +16425,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>4</v>
       </c>
@@ -16443,7 +16439,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>3</v>
       </c>
@@ -16457,7 +16453,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>236</v>
       </c>
@@ -16474,7 +16470,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D48" t="s">
         <v>375</v>
       </c>
@@ -16485,7 +16481,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>194</v>
       </c>
@@ -16505,7 +16501,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>2</v>
       </c>
@@ -16519,7 +16515,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>0</v>
       </c>
@@ -16533,7 +16529,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>71</v>
       </c>
@@ -16547,7 +16543,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>161</v>
       </c>
@@ -16567,7 +16563,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -16581,7 +16577,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>2</v>
       </c>
@@ -16595,7 +16591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>448</v>
       </c>
@@ -16615,7 +16611,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>3</v>
       </c>
@@ -16629,7 +16625,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>2</v>
       </c>
@@ -16643,7 +16639,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>0</v>
       </c>
@@ -16657,7 +16653,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>71</v>
       </c>
@@ -16671,7 +16667,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>423</v>
       </c>
@@ -16691,7 +16687,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>3</v>
       </c>
@@ -16705,7 +16701,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>2</v>
       </c>
@@ -16719,7 +16715,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>0</v>
       </c>
@@ -16733,7 +16729,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>71</v>
       </c>
@@ -16747,7 +16743,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>65</v>
       </c>
@@ -16767,7 +16763,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>37</v>
       </c>
@@ -16781,7 +16777,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>4</v>
       </c>
@@ -16795,7 +16791,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>3</v>
       </c>
@@ -16809,7 +16805,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>2</v>
       </c>
@@ -16823,7 +16819,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>0</v>
       </c>
@@ -16837,7 +16833,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>71</v>
       </c>
@@ -16851,7 +16847,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>245</v>
       </c>
@@ -16871,7 +16867,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>2</v>
       </c>
@@ -16885,7 +16881,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>465</v>
       </c>
@@ -16905,7 +16901,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>3</v>
       </c>
@@ -16919,7 +16915,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>2</v>
       </c>
@@ -16933,7 +16929,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>0</v>
       </c>
@@ -16947,7 +16943,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>71</v>
       </c>
@@ -16961,7 +16957,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>233</v>
       </c>
@@ -16981,7 +16977,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>116</v>
       </c>
@@ -16995,7 +16991,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>116</v>
       </c>

--- a/Tennis/WTA Tour/Kim Clijsters.xlsx
+++ b/Tennis/WTA Tour/Kim Clijsters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3355" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E132F77F-E923-46B8-B058-03255C8D9824}"/>
+  <xr:revisionPtr revIDLastSave="3356" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E39C2FD-013A-4F04-85FA-A9DC133A2AD7}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="23" activeTab="23" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="23" activeTab="27" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="1997" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
     <sheet name="2019" sheetId="41" r:id="rId23"/>
     <sheet name="2020" sheetId="27" r:id="rId24"/>
     <sheet name="2021" sheetId="33" r:id="rId25"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId26"/>
+    <sheet name="Stats" sheetId="1" r:id="rId26"/>
     <sheet name="Wins-Losses" sheetId="34" r:id="rId27"/>
     <sheet name="Winning Percentile Range" sheetId="35" r:id="rId28"/>
   </sheets>
@@ -2031,7 +2031,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$D$1</c:f>
+              <c:f>Stats!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2052,7 +2052,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$26</c:f>
+              <c:f>Stats!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -2136,7 +2136,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$D$2:$D$26</c:f>
+              <c:f>Stats!$D$2:$D$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -2229,7 +2229,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$E$1</c:f>
+              <c:f>Stats!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2250,7 +2250,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$26</c:f>
+              <c:f>Stats!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -2334,7 +2334,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$E$2:$E$26</c:f>
+              <c:f>Stats!$E$2:$E$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -2808,7 +2808,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$F$1</c:f>
+              <c:f>Stats!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2857,7 +2857,7 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$26</c:f>
+              <c:f>Stats!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -2941,7 +2941,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$F$2:$F$26</c:f>
+              <c:f>Stats!$F$2:$F$26</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="25"/>
@@ -4421,7 +4421,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{207F744F-61CD-4575-A5D1-332BE404724A}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4444,7 +4444,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+    <xdr:ext cx="8564880" cy="5821680"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4808,7 +4808,7 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -4904,7 +4904,7 @@
   </sheetPr>
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -5834,7 +5834,7 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -6163,7 +6163,7 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -6231,7 +6231,7 @@
   </sheetPr>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -6527,7 +6527,7 @@
   </sheetPr>
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -7253,7 +7253,7 @@
   </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -7768,7 +7768,7 @@
   </sheetPr>
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -8236,7 +8236,7 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -8304,7 +8304,7 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -8371,7 +8371,7 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -8438,7 +8438,7 @@
   </sheetPr>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -8762,7 +8762,7 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -8829,7 +8829,7 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -8896,7 +8896,7 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -8963,7 +8963,7 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -9030,7 +9030,7 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -9145,7 +9145,7 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -9232,7 +9232,7 @@
   </sheetPr>
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -9870,7 +9870,7 @@
   </sheetPr>
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -10669,7 +10669,7 @@
   </sheetPr>
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -11476,7 +11476,7 @@
   </sheetPr>
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -12696,7 +12696,7 @@
   </sheetPr>
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -13824,7 +13824,7 @@
   </sheetPr>
   <dimension ref="A1:F125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -15432,7 +15432,7 @@
   </sheetPr>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -15852,7 +15852,7 @@
   </sheetPr>
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>

--- a/Tennis/WTA Tour/Kim Clijsters.xlsx
+++ b/Tennis/WTA Tour/Kim Clijsters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3356" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E39C2FD-013A-4F04-85FA-A9DC133A2AD7}"/>
+  <xr:revisionPtr revIDLastSave="3357" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24090364-0FEE-434B-B233-23AFD2DDA094}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="23" activeTab="27" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="15705" yWindow="750" windowWidth="21615" windowHeight="15345" firstSheet="15" activeTab="15" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="1997" sheetId="3" r:id="rId1"/>
@@ -4421,7 +4421,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{207F744F-61CD-4575-A5D1-332BE404724A}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4477,7 +4477,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8656320" cy="6278880"/>
+    <xdr:ext cx="8667750" cy="6296025"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4504,6 +4504,10 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4808,21 +4812,21 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -4842,7 +4846,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>258</v>
       </c>
@@ -4862,7 +4866,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -4876,7 +4880,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -4904,21 +4908,21 @@
   </sheetPr>
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -4938,7 +4942,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>242</v>
       </c>
@@ -4958,7 +4962,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -4972,7 +4976,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -4992,7 +4996,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>37</v>
       </c>
@@ -5006,7 +5010,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -5020,7 +5024,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -5034,7 +5038,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -5048,7 +5052,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>0</v>
       </c>
@@ -5062,8 +5066,8 @@
         <v>496</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>460</v>
       </c>
@@ -5083,7 +5087,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>2</v>
       </c>
@@ -5097,7 +5101,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>0</v>
       </c>
@@ -5111,7 +5115,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>71</v>
       </c>
@@ -5125,7 +5129,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>217</v>
       </c>
@@ -5145,7 +5149,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>236</v>
       </c>
@@ -5162,7 +5166,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>168</v>
       </c>
@@ -5173,7 +5177,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>474</v>
       </c>
@@ -5193,7 +5197,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>2</v>
       </c>
@@ -5207,7 +5211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>0</v>
       </c>
@@ -5221,7 +5225,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>71</v>
       </c>
@@ -5235,7 +5239,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -5255,7 +5259,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -5269,7 +5273,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>53</v>
       </c>
@@ -5289,7 +5293,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>37</v>
       </c>
@@ -5303,7 +5307,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>4</v>
       </c>
@@ -5317,7 +5321,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -5331,7 +5335,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -5345,7 +5349,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>0</v>
       </c>
@@ -5359,7 +5363,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>243</v>
       </c>
@@ -5379,7 +5383,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>2</v>
       </c>
@@ -5393,7 +5397,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>0</v>
       </c>
@@ -5407,7 +5411,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>59</v>
       </c>
@@ -5427,7 +5431,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>37</v>
       </c>
@@ -5441,7 +5445,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>4</v>
       </c>
@@ -5455,7 +5459,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -5469,7 +5473,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>2</v>
       </c>
@@ -5483,7 +5487,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>0</v>
       </c>
@@ -5497,7 +5501,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>236</v>
       </c>
@@ -5514,7 +5518,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
         <v>514</v>
       </c>
@@ -5525,7 +5529,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>194</v>
       </c>
@@ -5545,7 +5549,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>2</v>
       </c>
@@ -5559,7 +5563,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>0</v>
       </c>
@@ -5573,7 +5577,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>71</v>
       </c>
@@ -5587,7 +5591,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>161</v>
       </c>
@@ -5607,7 +5611,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>3</v>
       </c>
@@ -5621,7 +5625,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>2</v>
       </c>
@@ -5635,7 +5639,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>0</v>
       </c>
@@ -5649,7 +5653,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>71</v>
       </c>
@@ -5663,7 +5667,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>423</v>
       </c>
@@ -5683,7 +5687,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>465</v>
       </c>
@@ -5703,7 +5707,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>3</v>
       </c>
@@ -5717,7 +5721,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>2</v>
       </c>
@@ -5731,7 +5735,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>0</v>
       </c>
@@ -5745,7 +5749,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>71</v>
       </c>
@@ -5759,7 +5763,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>233</v>
       </c>
@@ -5779,7 +5783,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>116</v>
       </c>
@@ -5793,7 +5797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>116</v>
       </c>
@@ -5807,7 +5811,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>0</v>
       </c>
@@ -5834,21 +5838,21 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -5868,7 +5872,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>242</v>
       </c>
@@ -5888,7 +5892,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -5902,7 +5906,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -5916,7 +5920,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>71</v>
       </c>
@@ -5930,7 +5934,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -5950,7 +5954,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>37</v>
       </c>
@@ -5964,7 +5968,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -5978,7 +5982,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -5992,7 +5996,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -6006,7 +6010,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -6020,7 +6024,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>460</v>
       </c>
@@ -6040,7 +6044,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -6054,7 +6058,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -6068,7 +6072,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>71</v>
       </c>
@@ -6082,7 +6086,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>217</v>
       </c>
@@ -6102,7 +6106,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -6116,7 +6120,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -6130,7 +6134,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>474</v>
       </c>
@@ -6163,21 +6167,21 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -6197,7 +6201,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>237</v>
       </c>
@@ -6231,21 +6235,21 @@
   </sheetPr>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -6265,7 +6269,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>249</v>
       </c>
@@ -6285,7 +6289,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>4</v>
       </c>
@@ -6299,7 +6303,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>3</v>
       </c>
@@ -6313,7 +6317,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>2</v>
       </c>
@@ -6327,7 +6331,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>423</v>
       </c>
@@ -6347,7 +6351,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -6361,7 +6365,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -6375,7 +6379,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -6395,7 +6399,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>37</v>
       </c>
@@ -6409,7 +6413,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>4</v>
       </c>
@@ -6423,7 +6427,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -6437,7 +6441,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -6451,7 +6455,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -6465,7 +6469,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>71</v>
       </c>
@@ -6479,7 +6483,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>316</v>
       </c>
@@ -6499,7 +6503,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -6527,21 +6531,21 @@
   </sheetPr>
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -6561,7 +6565,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>214</v>
       </c>
@@ -6581,7 +6585,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -6595,7 +6599,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -6609,7 +6613,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -6623,7 +6627,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>71</v>
       </c>
@@ -6637,7 +6641,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -6657,7 +6661,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>37</v>
       </c>
@@ -6671,7 +6675,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -6685,7 +6689,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>251</v>
       </c>
@@ -6705,7 +6709,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>4</v>
       </c>
@@ -6719,7 +6723,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>217</v>
       </c>
@@ -6739,7 +6743,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -6753,7 +6757,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -6767,7 +6771,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -6781,7 +6785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>0</v>
       </c>
@@ -6795,7 +6799,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>71</v>
       </c>
@@ -6809,7 +6813,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>201</v>
       </c>
@@ -6829,7 +6833,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -6843,7 +6847,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>236</v>
       </c>
@@ -6860,7 +6864,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>243</v>
       </c>
@@ -6880,7 +6884,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -6894,7 +6898,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>2</v>
       </c>
@@ -6908,7 +6912,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>59</v>
       </c>
@@ -6928,7 +6932,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>37</v>
       </c>
@@ -6942,7 +6946,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>4</v>
       </c>
@@ -6956,7 +6960,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -6970,7 +6974,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>2</v>
       </c>
@@ -6984,7 +6988,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>249</v>
       </c>
@@ -7004,7 +7008,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -7018,7 +7022,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -7032,7 +7036,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>0</v>
       </c>
@@ -7046,7 +7050,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>71</v>
       </c>
@@ -7060,7 +7064,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>65</v>
       </c>
@@ -7080,7 +7084,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>37</v>
       </c>
@@ -7094,7 +7098,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>4</v>
       </c>
@@ -7108,7 +7112,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -7122,7 +7126,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>2</v>
       </c>
@@ -7136,7 +7140,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>0</v>
       </c>
@@ -7150,7 +7154,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>71</v>
       </c>
@@ -7164,7 +7168,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>233</v>
       </c>
@@ -7184,7 +7188,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>116</v>
       </c>
@@ -7198,7 +7202,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>116</v>
       </c>
@@ -7212,7 +7216,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>0</v>
       </c>
@@ -7226,7 +7230,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>71</v>
       </c>
@@ -7253,21 +7257,21 @@
   </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -7287,7 +7291,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>242</v>
       </c>
@@ -7307,7 +7311,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -7321,7 +7325,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -7335,7 +7339,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -7349,7 +7353,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>71</v>
       </c>
@@ -7363,7 +7367,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -7383,7 +7387,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>37</v>
       </c>
@@ -7397,7 +7401,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -7411,7 +7415,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -7425,7 +7429,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -7439,7 +7443,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>0</v>
       </c>
@@ -7453,7 +7457,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>71</v>
       </c>
@@ -7467,7 +7471,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>236</v>
       </c>
@@ -7484,7 +7488,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>560</v>
       </c>
@@ -7495,7 +7499,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>196</v>
       </c>
@@ -7515,7 +7519,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>2</v>
       </c>
@@ -7529,7 +7533,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>0</v>
       </c>
@@ -7543,7 +7547,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>71</v>
       </c>
@@ -7557,7 +7561,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>251</v>
       </c>
@@ -7577,7 +7581,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>4</v>
       </c>
@@ -7591,7 +7595,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -7605,7 +7609,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>217</v>
       </c>
@@ -7625,7 +7629,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>4</v>
       </c>
@@ -7639,7 +7643,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -7653,7 +7657,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>2</v>
       </c>
@@ -7667,7 +7671,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>53</v>
       </c>
@@ -7687,7 +7691,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>37</v>
       </c>
@@ -7701,7 +7705,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>346</v>
       </c>
@@ -7721,7 +7725,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -7735,7 +7739,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>423</v>
       </c>
@@ -7768,21 +7772,21 @@
   </sheetPr>
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -7802,7 +7806,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>214</v>
       </c>
@@ -7822,7 +7826,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -7836,7 +7840,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -7850,7 +7854,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -7864,7 +7868,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -7884,7 +7888,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>37</v>
       </c>
@@ -7898,7 +7902,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -7912,7 +7916,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -7926,7 +7930,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -7940,7 +7944,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -7954,7 +7958,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>217</v>
       </c>
@@ -7974,7 +7978,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>37</v>
       </c>
@@ -7988,7 +7992,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -8002,7 +8006,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>346</v>
       </c>
@@ -8022,7 +8026,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -8036,7 +8040,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>2</v>
       </c>
@@ -8050,7 +8054,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>0</v>
       </c>
@@ -8064,7 +8068,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>59</v>
       </c>
@@ -8084,7 +8088,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>37</v>
       </c>
@@ -8098,7 +8102,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>4</v>
       </c>
@@ -8112,7 +8116,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -8126,7 +8130,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>585</v>
       </c>
@@ -8146,7 +8150,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>4</v>
       </c>
@@ -8160,7 +8164,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -8174,7 +8178,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>2</v>
       </c>
@@ -8188,7 +8192,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -8208,7 +8212,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>37</v>
       </c>
@@ -8236,21 +8240,21 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -8270,7 +8274,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>237</v>
       </c>
@@ -8304,21 +8308,21 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -8338,7 +8342,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>237</v>
       </c>
@@ -8371,21 +8375,21 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -8405,7 +8409,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>237</v>
       </c>
@@ -8438,21 +8442,21 @@
   </sheetPr>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -8472,7 +8476,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>263</v>
       </c>
@@ -8492,7 +8496,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -8506,7 +8510,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -8520,7 +8524,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -8534,7 +8538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>71</v>
       </c>
@@ -8548,7 +8552,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>258</v>
       </c>
@@ -8568,7 +8572,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -8582,7 +8586,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -8596,7 +8600,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -8610,7 +8614,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>71</v>
       </c>
@@ -8624,7 +8628,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>263</v>
       </c>
@@ -8644,7 +8648,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -8658,7 +8662,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>277</v>
       </c>
@@ -8678,7 +8682,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>7</v>
       </c>
@@ -8692,7 +8696,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>6</v>
       </c>
@@ -8706,7 +8710,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -8720,7 +8724,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -8734,7 +8738,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -8762,21 +8766,21 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -8796,7 +8800,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>237</v>
       </c>
@@ -8829,21 +8833,21 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -8863,7 +8867,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>237</v>
       </c>
@@ -8896,21 +8900,21 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -8930,7 +8934,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>237</v>
       </c>
@@ -8963,21 +8967,21 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -8997,7 +9001,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>237</v>
       </c>
@@ -9030,21 +9034,21 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -9064,7 +9068,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>235</v>
       </c>
@@ -9084,11 +9088,11 @@
         <v>256</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>257</v>
       </c>
@@ -9108,11 +9112,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -9145,21 +9149,21 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -9179,7 +9183,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>252</v>
       </c>
@@ -9199,7 +9203,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>251</v>
       </c>
@@ -9232,22 +9236,22 @@
   </sheetPr>
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>229</v>
       </c>
@@ -9267,7 +9271,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1997</v>
       </c>
@@ -9289,7 +9293,7 @@
       </c>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1998</v>
       </c>
@@ -9310,7 +9314,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1999</v>
       </c>
@@ -9331,7 +9335,7 @@
         <v>0.77500000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2000</v>
       </c>
@@ -9352,7 +9356,7 @@
         <v>0.43333333333333335</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2001</v>
       </c>
@@ -9373,7 +9377,7 @@
         <v>0.69090909090909092</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2002</v>
       </c>
@@ -9394,7 +9398,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2003</v>
       </c>
@@ -9415,7 +9419,7 @@
         <v>0.8666666666666667</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2004</v>
       </c>
@@ -9436,7 +9440,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2005</v>
       </c>
@@ -9458,7 +9462,7 @@
       </c>
       <c r="N10" s="7"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2006</v>
       </c>
@@ -9480,7 +9484,7 @@
       </c>
       <c r="N11" s="7"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2007</v>
       </c>
@@ -9502,7 +9506,7 @@
       </c>
       <c r="N12" s="7"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2008</v>
       </c>
@@ -9524,7 +9528,7 @@
       </c>
       <c r="N13" s="7"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2009</v>
       </c>
@@ -9546,7 +9550,7 @@
       </c>
       <c r="N14" s="7"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2010</v>
       </c>
@@ -9567,7 +9571,7 @@
         <v>0.84210526315789469</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2011</v>
       </c>
@@ -9588,7 +9592,7 @@
         <v>0.69565217391304346</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2012</v>
       </c>
@@ -9609,7 +9613,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2013</v>
       </c>
@@ -9630,7 +9634,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2014</v>
       </c>
@@ -9651,7 +9655,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2015</v>
       </c>
@@ -9672,7 +9676,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2016</v>
       </c>
@@ -9693,7 +9697,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2017</v>
       </c>
@@ -9714,7 +9718,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2018</v>
       </c>
@@ -9735,7 +9739,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2019</v>
       </c>
@@ -9756,7 +9760,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2020</v>
       </c>
@@ -9777,7 +9781,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2021</v>
       </c>
@@ -9798,7 +9802,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>128</v>
       </c>
@@ -9823,7 +9827,7 @@
         <v>0.75096525096525102</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>246</v>
       </c>
@@ -9870,21 +9874,21 @@
   </sheetPr>
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -9904,7 +9908,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>285</v>
       </c>
@@ -9924,7 +9928,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -9938,7 +9942,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -9952,7 +9956,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -9966,7 +9970,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>71</v>
       </c>
@@ -9980,7 +9984,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>290</v>
       </c>
@@ -10000,7 +10004,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>7</v>
       </c>
@@ -10014,7 +10018,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>6</v>
       </c>
@@ -10028,7 +10032,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>4</v>
       </c>
@@ -10042,7 +10046,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>3</v>
       </c>
@@ -10056,7 +10060,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>2</v>
       </c>
@@ -10070,7 +10074,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>0</v>
       </c>
@@ -10084,7 +10088,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>71</v>
       </c>
@@ -10098,7 +10102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>300</v>
       </c>
@@ -10118,7 +10122,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -10132,7 +10136,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>2</v>
       </c>
@@ -10146,7 +10150,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>0</v>
       </c>
@@ -10160,7 +10164,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>306</v>
       </c>
@@ -10180,7 +10184,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>7</v>
       </c>
@@ -10194,7 +10198,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>6</v>
       </c>
@@ -10208,7 +10212,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>4</v>
       </c>
@@ -10222,7 +10226,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -10236,7 +10240,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -10250,7 +10254,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>59</v>
       </c>
@@ -10270,7 +10274,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>7</v>
       </c>
@@ -10284,7 +10288,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>6</v>
       </c>
@@ -10298,7 +10302,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>36</v>
       </c>
@@ -10312,7 +10316,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>37</v>
       </c>
@@ -10326,7 +10330,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>4</v>
       </c>
@@ -10340,7 +10344,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -10354,7 +10358,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>313</v>
       </c>
@@ -10374,7 +10378,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>65</v>
       </c>
@@ -10394,7 +10398,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>37</v>
       </c>
@@ -10408,7 +10412,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>4</v>
       </c>
@@ -10422,7 +10426,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>316</v>
       </c>
@@ -10442,7 +10446,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>7</v>
       </c>
@@ -10456,7 +10460,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>6</v>
       </c>
@@ -10470,7 +10474,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>4</v>
       </c>
@@ -10484,7 +10488,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -10498,7 +10502,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>2</v>
       </c>
@@ -10512,7 +10516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>0</v>
       </c>
@@ -10526,7 +10530,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>71</v>
       </c>
@@ -10540,7 +10544,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>322</v>
       </c>
@@ -10560,7 +10564,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -10574,7 +10578,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>2</v>
       </c>
@@ -10588,7 +10592,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>0</v>
       </c>
@@ -10602,7 +10606,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>71</v>
       </c>
@@ -10616,7 +10620,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>326</v>
       </c>
@@ -10636,7 +10640,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>327</v>
       </c>
@@ -10669,21 +10673,21 @@
   </sheetPr>
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -10703,7 +10707,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>234</v>
       </c>
@@ -10723,7 +10727,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -10737,7 +10741,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -10751,7 +10755,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -10765,7 +10769,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>71</v>
       </c>
@@ -10779,7 +10783,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -10799,7 +10803,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>90</v>
       </c>
@@ -10819,7 +10823,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -10833,7 +10837,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>251</v>
       </c>
@@ -10853,7 +10857,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>4</v>
       </c>
@@ -10867,7 +10871,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -10881,7 +10885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>217</v>
       </c>
@@ -10901,7 +10905,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -10915,7 +10919,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -10929,7 +10933,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>236</v>
       </c>
@@ -10946,7 +10950,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>50</v>
       </c>
@@ -10957,7 +10961,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>342</v>
       </c>
@@ -10968,7 +10972,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>343</v>
       </c>
@@ -10988,7 +10992,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -11002,7 +11006,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -11022,7 +11026,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>346</v>
       </c>
@@ -11042,7 +11046,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>3</v>
       </c>
@@ -11056,7 +11060,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>59</v>
       </c>
@@ -11076,7 +11080,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>36</v>
       </c>
@@ -11090,7 +11094,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>194</v>
       </c>
@@ -11110,7 +11114,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>161</v>
       </c>
@@ -11130,7 +11134,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>351</v>
       </c>
@@ -11150,7 +11154,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -11164,7 +11168,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>2</v>
       </c>
@@ -11178,7 +11182,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>65</v>
       </c>
@@ -11198,7 +11202,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>37</v>
       </c>
@@ -11212,7 +11216,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>316</v>
       </c>
@@ -11232,7 +11236,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>3</v>
       </c>
@@ -11246,7 +11250,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>2</v>
       </c>
@@ -11260,7 +11264,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>245</v>
       </c>
@@ -11280,7 +11284,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -11294,7 +11298,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>2</v>
       </c>
@@ -11308,7 +11312,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>0</v>
       </c>
@@ -11322,7 +11326,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>71</v>
       </c>
@@ -11336,7 +11340,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>239</v>
       </c>
@@ -11356,7 +11360,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>3</v>
       </c>
@@ -11370,7 +11374,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>2</v>
       </c>
@@ -11384,7 +11388,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>0</v>
       </c>
@@ -11398,7 +11402,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>71</v>
       </c>
@@ -11412,7 +11416,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>233</v>
       </c>
@@ -11432,7 +11436,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>2</v>
       </c>
@@ -11446,7 +11450,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>236</v>
       </c>
@@ -11476,21 +11480,21 @@
   </sheetPr>
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -11510,7 +11514,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>242</v>
       </c>
@@ -11530,7 +11534,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -11544,7 +11548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -11564,7 +11568,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>37</v>
       </c>
@@ -11578,7 +11582,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -11592,7 +11596,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -11606,7 +11610,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>120</v>
       </c>
@@ -11626,7 +11630,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -11640,7 +11644,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>251</v>
       </c>
@@ -11660,7 +11664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>4</v>
       </c>
@@ -11674,7 +11678,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -11688,7 +11692,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>2</v>
       </c>
@@ -11702,7 +11706,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>0</v>
       </c>
@@ -11716,7 +11720,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>71</v>
       </c>
@@ -11730,8 +11734,8 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>217</v>
       </c>
@@ -11751,7 +11755,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -11765,7 +11769,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>3</v>
       </c>
@@ -11779,8 +11783,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>373</v>
       </c>
@@ -11800,7 +11804,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -11814,7 +11818,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>0</v>
       </c>
@@ -11828,7 +11832,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>376</v>
       </c>
@@ -11848,7 +11852,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -11868,7 +11872,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -11888,7 +11892,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>37</v>
       </c>
@@ -11902,7 +11906,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>4</v>
       </c>
@@ -11916,7 +11920,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -11930,7 +11934,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -11944,7 +11948,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>0</v>
       </c>
@@ -11958,7 +11962,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>71</v>
       </c>
@@ -11972,7 +11976,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>346</v>
       </c>
@@ -11992,7 +11996,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>2</v>
       </c>
@@ -12006,7 +12010,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>0</v>
       </c>
@@ -12020,7 +12024,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>71</v>
       </c>
@@ -12034,7 +12038,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>59</v>
       </c>
@@ -12054,7 +12058,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>37</v>
       </c>
@@ -12068,7 +12072,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>4</v>
       </c>
@@ -12082,7 +12086,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>3</v>
       </c>
@@ -12096,7 +12100,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>2</v>
       </c>
@@ -12110,7 +12114,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>390</v>
       </c>
@@ -12130,7 +12134,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -12144,7 +12148,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>2</v>
       </c>
@@ -12158,7 +12162,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>0</v>
       </c>
@@ -12172,7 +12176,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>194</v>
       </c>
@@ -12192,7 +12196,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>2</v>
       </c>
@@ -12206,7 +12210,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>0</v>
       </c>
@@ -12220,7 +12224,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>71</v>
       </c>
@@ -12234,7 +12238,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>393</v>
       </c>
@@ -12254,7 +12258,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>394</v>
       </c>
@@ -12274,7 +12278,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>3</v>
       </c>
@@ -12288,7 +12292,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>2</v>
       </c>
@@ -12302,7 +12306,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>351</v>
       </c>
@@ -12322,7 +12326,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>2</v>
       </c>
@@ -12336,7 +12340,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>0</v>
       </c>
@@ -12350,7 +12354,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>65</v>
       </c>
@@ -12370,7 +12374,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>37</v>
       </c>
@@ -12384,7 +12388,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>4</v>
       </c>
@@ -12398,7 +12402,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>3</v>
       </c>
@@ -12412,7 +12416,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>2</v>
       </c>
@@ -12426,7 +12430,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>98</v>
       </c>
@@ -12446,7 +12450,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>2</v>
       </c>
@@ -12460,7 +12464,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>0</v>
       </c>
@@ -12474,7 +12478,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>239</v>
       </c>
@@ -12494,7 +12498,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>2</v>
       </c>
@@ -12508,7 +12512,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>0</v>
       </c>
@@ -12522,7 +12526,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>71</v>
       </c>
@@ -12536,7 +12540,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>245</v>
       </c>
@@ -12556,7 +12560,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>316</v>
       </c>
@@ -12576,7 +12580,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>2</v>
       </c>
@@ -12590,7 +12594,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>0</v>
       </c>
@@ -12604,7 +12608,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>71</v>
       </c>
@@ -12618,7 +12622,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>233</v>
       </c>
@@ -12638,7 +12642,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>2</v>
       </c>
@@ -12652,7 +12656,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>0</v>
       </c>
@@ -12666,7 +12670,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>236</v>
       </c>
@@ -12696,21 +12700,21 @@
   </sheetPr>
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -12730,7 +12734,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>242</v>
       </c>
@@ -12750,7 +12754,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -12764,7 +12768,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -12778,7 +12782,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -12798,7 +12802,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>37</v>
       </c>
@@ -12812,7 +12816,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -12826,7 +12830,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -12840,7 +12844,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -12854,7 +12858,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -12868,7 +12872,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>251</v>
       </c>
@@ -12888,7 +12892,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>217</v>
       </c>
@@ -12908,7 +12912,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -12922,7 +12926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -12936,7 +12940,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -12950,7 +12954,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>236</v>
       </c>
@@ -12967,7 +12971,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>409</v>
       </c>
@@ -12987,7 +12991,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>2</v>
       </c>
@@ -13001,7 +13005,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>0</v>
       </c>
@@ -13015,7 +13019,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>71</v>
       </c>
@@ -13029,7 +13033,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>376</v>
       </c>
@@ -13049,7 +13053,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -13069,7 +13073,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -13083,7 +13087,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>2</v>
       </c>
@@ -13097,7 +13101,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>0</v>
       </c>
@@ -13111,7 +13115,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -13131,7 +13135,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>37</v>
       </c>
@@ -13145,7 +13149,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>4</v>
       </c>
@@ -13159,7 +13163,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>346</v>
       </c>
@@ -13179,7 +13183,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -13193,7 +13197,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>59</v>
       </c>
@@ -13213,7 +13217,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>37</v>
       </c>
@@ -13227,7 +13231,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>194</v>
       </c>
@@ -13247,7 +13251,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>2</v>
       </c>
@@ -13261,7 +13265,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>0</v>
       </c>
@@ -13275,7 +13279,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>71</v>
       </c>
@@ -13289,7 +13293,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>161</v>
       </c>
@@ -13309,7 +13313,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>3</v>
       </c>
@@ -13323,7 +13327,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>2</v>
       </c>
@@ -13337,7 +13341,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>448</v>
       </c>
@@ -13357,7 +13361,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>423</v>
       </c>
@@ -13377,7 +13381,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -13391,7 +13395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>65</v>
       </c>
@@ -13411,7 +13415,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>37</v>
       </c>
@@ -13425,7 +13429,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>4</v>
       </c>
@@ -13439,7 +13443,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -13453,7 +13457,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>98</v>
       </c>
@@ -13473,7 +13477,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>2</v>
       </c>
@@ -13487,7 +13491,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>0</v>
       </c>
@@ -13501,7 +13505,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>71</v>
       </c>
@@ -13515,7 +13519,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>239</v>
       </c>
@@ -13535,7 +13539,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>2</v>
       </c>
@@ -13549,7 +13553,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>0</v>
       </c>
@@ -13563,7 +13567,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>245</v>
       </c>
@@ -13583,7 +13587,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>3</v>
       </c>
@@ -13597,7 +13601,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>2</v>
       </c>
@@ -13611,7 +13615,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>0</v>
       </c>
@@ -13625,7 +13629,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>71</v>
       </c>
@@ -13639,7 +13643,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>431</v>
       </c>
@@ -13659,7 +13663,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>3</v>
       </c>
@@ -13673,7 +13677,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>2</v>
       </c>
@@ -13687,7 +13691,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>316</v>
       </c>
@@ -13707,7 +13711,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>2</v>
       </c>
@@ -13721,7 +13725,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>0</v>
       </c>
@@ -13735,7 +13739,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>71</v>
       </c>
@@ -13749,7 +13753,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>233</v>
       </c>
@@ -13769,7 +13773,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>2</v>
       </c>
@@ -13783,7 +13787,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>0</v>
       </c>
@@ -13797,7 +13801,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>71</v>
       </c>
@@ -13824,21 +13828,21 @@
   </sheetPr>
   <dimension ref="A1:F125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -13858,7 +13862,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>242</v>
       </c>
@@ -13878,7 +13882,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -13892,7 +13896,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
@@ -13908,7 +13912,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
@@ -13924,7 +13928,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -13944,7 +13948,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>37</v>
       </c>
@@ -13958,7 +13962,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -13972,7 +13976,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -13986,7 +13990,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -14000,7 +14004,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -14014,8 +14018,8 @@
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>460</v>
       </c>
@@ -14035,7 +14039,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -14049,7 +14053,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -14063,7 +14067,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>71</v>
       </c>
@@ -14077,7 +14081,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>120</v>
       </c>
@@ -14097,7 +14101,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>2</v>
       </c>
@@ -14111,7 +14115,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>0</v>
       </c>
@@ -14125,7 +14129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>71</v>
       </c>
@@ -14139,7 +14143,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>251</v>
       </c>
@@ -14159,7 +14163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>4</v>
       </c>
@@ -14173,7 +14177,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -14187,7 +14191,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -14201,7 +14205,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -14215,7 +14219,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>71</v>
       </c>
@@ -14229,7 +14233,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>217</v>
       </c>
@@ -14249,7 +14253,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>4</v>
       </c>
@@ -14263,7 +14267,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -14277,7 +14281,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -14291,7 +14295,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>0</v>
       </c>
@@ -14305,7 +14309,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>236</v>
       </c>
@@ -14322,7 +14326,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
         <v>305</v>
       </c>
@@ -14333,7 +14337,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>376</v>
       </c>
@@ -14353,7 +14357,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -14367,7 +14371,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>2</v>
       </c>
@@ -14381,7 +14385,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>0</v>
       </c>
@@ -14395,7 +14399,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>71</v>
       </c>
@@ -14409,7 +14413,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -14429,7 +14433,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -14443,7 +14447,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>2</v>
       </c>
@@ -14457,7 +14461,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>0</v>
       </c>
@@ -14471,7 +14475,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>71</v>
       </c>
@@ -14485,7 +14489,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -14505,7 +14509,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>37</v>
       </c>
@@ -14519,7 +14523,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>4</v>
       </c>
@@ -14533,7 +14537,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -14547,7 +14551,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>2</v>
       </c>
@@ -14561,7 +14565,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>0</v>
       </c>
@@ -14575,7 +14579,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>71</v>
       </c>
@@ -14589,7 +14593,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>346</v>
       </c>
@@ -14609,7 +14613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>2</v>
       </c>
@@ -14623,7 +14627,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>0</v>
       </c>
@@ -14637,7 +14641,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>71</v>
       </c>
@@ -14651,8 +14655,8 @@
         <v>441</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>59</v>
       </c>
@@ -14672,7 +14676,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>37</v>
       </c>
@@ -14686,7 +14690,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>4</v>
       </c>
@@ -14700,7 +14704,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -14714,7 +14718,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>2</v>
       </c>
@@ -14728,7 +14732,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>0</v>
       </c>
@@ -14742,7 +14746,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>236</v>
       </c>
@@ -14759,7 +14763,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
         <v>446</v>
       </c>
@@ -14770,7 +14774,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>194</v>
       </c>
@@ -14790,7 +14794,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>2</v>
       </c>
@@ -14804,7 +14808,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>0</v>
       </c>
@@ -14818,7 +14822,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>71</v>
       </c>
@@ -14832,7 +14836,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>161</v>
       </c>
@@ -14852,7 +14856,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>3</v>
       </c>
@@ -14866,7 +14870,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>2</v>
       </c>
@@ -14880,7 +14884,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>0</v>
       </c>
@@ -14894,7 +14898,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>71</v>
       </c>
@@ -14908,7 +14912,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>448</v>
       </c>
@@ -14928,7 +14932,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>3</v>
       </c>
@@ -14942,7 +14946,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>2</v>
       </c>
@@ -14956,7 +14960,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>0</v>
       </c>
@@ -14970,7 +14974,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>71</v>
       </c>
@@ -14984,7 +14988,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>423</v>
       </c>
@@ -15004,7 +15008,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>3</v>
       </c>
@@ -15018,7 +15022,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>65</v>
       </c>
@@ -15038,7 +15042,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>37</v>
       </c>
@@ -15052,7 +15056,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>4</v>
       </c>
@@ -15066,7 +15070,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>3</v>
       </c>
@@ -15080,7 +15084,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>2</v>
       </c>
@@ -15094,7 +15098,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>0</v>
       </c>
@@ -15108,7 +15112,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>71</v>
       </c>
@@ -15122,7 +15126,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>239</v>
       </c>
@@ -15142,7 +15146,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
         <v>2</v>
       </c>
@@ -15156,7 +15160,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
         <v>0</v>
       </c>
@@ -15170,7 +15174,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>245</v>
       </c>
@@ -15190,7 +15194,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
         <v>2</v>
       </c>
@@ -15204,7 +15208,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
         <v>0</v>
       </c>
@@ -15218,7 +15222,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
         <v>71</v>
       </c>
@@ -15232,7 +15236,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>431</v>
       </c>
@@ -15252,7 +15256,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C113" t="s">
         <v>2</v>
       </c>
@@ -15266,7 +15270,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C114" t="s">
         <v>0</v>
       </c>
@@ -15280,7 +15284,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>316</v>
       </c>
@@ -15300,7 +15304,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C117" t="s">
         <v>2</v>
       </c>
@@ -15314,7 +15318,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C118" t="s">
         <v>0</v>
       </c>
@@ -15328,7 +15332,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C119" t="s">
         <v>71</v>
       </c>
@@ -15342,7 +15346,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>233</v>
       </c>
@@ -15362,7 +15366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C122" t="s">
         <v>116</v>
       </c>
@@ -15376,7 +15380,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C123" t="s">
         <v>116</v>
       </c>
@@ -15390,7 +15394,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C124" t="s">
         <v>0</v>
       </c>
@@ -15404,7 +15408,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C125" t="s">
         <v>71</v>
       </c>
@@ -15432,21 +15436,21 @@
   </sheetPr>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -15466,7 +15470,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -15486,7 +15490,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>37</v>
       </c>
@@ -15500,7 +15504,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -15514,7 +15518,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -15528,7 +15532,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -15542,7 +15546,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -15556,7 +15560,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>71</v>
       </c>
@@ -15570,7 +15574,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>459</v>
       </c>
@@ -15590,7 +15594,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -15604,7 +15608,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -15618,7 +15622,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>71</v>
       </c>
@@ -15632,7 +15636,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>460</v>
       </c>
@@ -15652,7 +15656,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>2</v>
       </c>
@@ -15666,7 +15670,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>0</v>
       </c>
@@ -15680,7 +15684,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>71</v>
       </c>
@@ -15694,7 +15698,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>251</v>
       </c>
@@ -15714,7 +15718,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -15728,7 +15732,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>236</v>
       </c>
@@ -15745,7 +15749,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>463</v>
       </c>
@@ -15756,7 +15760,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>376</v>
       </c>
@@ -15776,7 +15780,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -15790,7 +15794,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>465</v>
       </c>
@@ -15810,7 +15814,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -15824,7 +15828,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>0</v>
       </c>
@@ -15852,21 +15856,21 @@
   </sheetPr>
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -15886,7 +15890,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>460</v>
       </c>
@@ -15906,7 +15910,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>4</v>
       </c>
@@ -15920,7 +15924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -15934,7 +15938,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>251</v>
       </c>
@@ -15954,7 +15958,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>37</v>
       </c>
@@ -15968,7 +15972,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -15982,7 +15986,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -15996,7 +16000,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -16010,7 +16014,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -16024,7 +16028,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>71</v>
       </c>
@@ -16038,7 +16042,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>217</v>
       </c>
@@ -16058,7 +16062,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>37</v>
       </c>
@@ -16072,7 +16076,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -16086,7 +16090,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -16100,7 +16104,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -16114,7 +16118,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>0</v>
       </c>
@@ -16128,7 +16132,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>71</v>
       </c>
@@ -16142,7 +16146,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>474</v>
       </c>
@@ -16162,7 +16166,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -16176,7 +16180,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -16190,7 +16194,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>0</v>
       </c>
@@ -16204,8 +16208,8 @@
         <v>475</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>376</v>
       </c>
@@ -16225,7 +16229,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -16239,7 +16243,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -16253,7 +16257,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>53</v>
       </c>
@@ -16273,7 +16277,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>37</v>
       </c>
@@ -16287,7 +16291,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>4</v>
       </c>
@@ -16301,7 +16305,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -16315,7 +16319,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>243</v>
       </c>
@@ -16335,7 +16339,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -16349,7 +16353,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>2</v>
       </c>
@@ -16363,7 +16367,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>0</v>
       </c>
@@ -16377,7 +16381,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>71</v>
       </c>
@@ -16391,7 +16395,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -16411,7 +16415,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>37</v>
       </c>
@@ -16425,7 +16429,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>4</v>
       </c>
@@ -16439,7 +16443,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>3</v>
       </c>
@@ -16453,7 +16457,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>236</v>
       </c>
@@ -16470,7 +16474,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
         <v>375</v>
       </c>
@@ -16481,7 +16485,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>194</v>
       </c>
@@ -16501,7 +16505,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>2</v>
       </c>
@@ -16515,7 +16519,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>0</v>
       </c>
@@ -16529,7 +16533,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>71</v>
       </c>
@@ -16543,7 +16547,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>161</v>
       </c>
@@ -16563,7 +16567,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -16577,7 +16581,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>2</v>
       </c>
@@ -16591,7 +16595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>448</v>
       </c>
@@ -16611,7 +16615,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>3</v>
       </c>
@@ -16625,7 +16629,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>2</v>
       </c>
@@ -16639,7 +16643,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>0</v>
       </c>
@@ -16653,7 +16657,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>71</v>
       </c>
@@ -16667,7 +16671,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>423</v>
       </c>
@@ -16687,7 +16691,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>3</v>
       </c>
@@ -16701,7 +16705,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>2</v>
       </c>
@@ -16715,7 +16719,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>0</v>
       </c>
@@ -16729,7 +16733,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>71</v>
       </c>
@@ -16743,7 +16747,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>65</v>
       </c>
@@ -16763,7 +16767,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>37</v>
       </c>
@@ -16777,7 +16781,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>4</v>
       </c>
@@ -16791,7 +16795,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>3</v>
       </c>
@@ -16805,7 +16809,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>2</v>
       </c>
@@ -16819,7 +16823,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>0</v>
       </c>
@@ -16833,7 +16837,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>71</v>
       </c>
@@ -16847,7 +16851,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>245</v>
       </c>
@@ -16867,7 +16871,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>2</v>
       </c>
@@ -16881,7 +16885,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>465</v>
       </c>
@@ -16901,7 +16905,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>3</v>
       </c>
@@ -16915,7 +16919,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>2</v>
       </c>
@@ -16929,7 +16933,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>0</v>
       </c>
@@ -16943,7 +16947,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>71</v>
       </c>
@@ -16957,7 +16961,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>233</v>
       </c>
@@ -16977,7 +16981,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>116</v>
       </c>
@@ -16991,7 +16995,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>116</v>
       </c>

--- a/Tennis/WTA Tour/Kim Clijsters.xlsx
+++ b/Tennis/WTA Tour/Kim Clijsters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3357" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24090364-0FEE-434B-B233-23AFD2DDA094}"/>
+  <xr:revisionPtr revIDLastSave="3359" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7E2652E-EBB3-4CD8-99F3-E2380D5F7B2D}"/>
   <bookViews>
-    <workbookView xWindow="15705" yWindow="750" windowWidth="21615" windowHeight="15345" firstSheet="15" activeTab="15" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="18" activeTab="27" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="1997" sheetId="3" r:id="rId1"/>
@@ -4421,7 +4421,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{207F744F-61CD-4575-A5D1-332BE404724A}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4477,7 +4477,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8667750" cy="6296025"/>
+    <xdr:ext cx="8656320" cy="6278880"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4812,21 +4812,21 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -4846,7 +4846,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>258</v>
       </c>
@@ -4866,7 +4866,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -4908,21 +4908,21 @@
   </sheetPr>
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -4942,7 +4942,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>242</v>
       </c>
@@ -4962,7 +4962,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -4976,7 +4976,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>37</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -5024,7 +5024,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -5038,7 +5038,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -5052,7 +5052,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>0</v>
       </c>
@@ -5066,8 +5066,8 @@
         <v>496</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>460</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>2</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>0</v>
       </c>
@@ -5115,7 +5115,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>71</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>217</v>
       </c>
@@ -5149,7 +5149,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>236</v>
       </c>
@@ -5166,7 +5166,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>168</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>474</v>
       </c>
@@ -5197,7 +5197,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>2</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>0</v>
       </c>
@@ -5225,7 +5225,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>71</v>
       </c>
@@ -5239,7 +5239,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -5259,7 +5259,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -5273,7 +5273,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>53</v>
       </c>
@@ -5293,7 +5293,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>37</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>4</v>
       </c>
@@ -5321,7 +5321,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>0</v>
       </c>
@@ -5363,7 +5363,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>243</v>
       </c>
@@ -5383,7 +5383,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>2</v>
       </c>
@@ -5397,7 +5397,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>0</v>
       </c>
@@ -5411,7 +5411,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>59</v>
       </c>
@@ -5431,7 +5431,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>37</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>4</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>2</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>0</v>
       </c>
@@ -5501,7 +5501,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>236</v>
       </c>
@@ -5518,7 +5518,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
         <v>514</v>
       </c>
@@ -5529,7 +5529,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>194</v>
       </c>
@@ -5549,7 +5549,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>2</v>
       </c>
@@ -5563,7 +5563,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>0</v>
       </c>
@@ -5577,7 +5577,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>71</v>
       </c>
@@ -5591,7 +5591,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>161</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>3</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>2</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>0</v>
       </c>
@@ -5653,7 +5653,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>71</v>
       </c>
@@ -5667,7 +5667,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>423</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>465</v>
       </c>
@@ -5707,7 +5707,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>3</v>
       </c>
@@ -5721,7 +5721,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>2</v>
       </c>
@@ -5735,7 +5735,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>0</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>71</v>
       </c>
@@ -5763,7 +5763,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>233</v>
       </c>
@@ -5783,7 +5783,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>116</v>
       </c>
@@ -5797,7 +5797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>116</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>0</v>
       </c>
@@ -5838,21 +5838,21 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -5872,7 +5872,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>242</v>
       </c>
@@ -5892,7 +5892,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -5906,7 +5906,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>71</v>
       </c>
@@ -5934,7 +5934,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -5954,7 +5954,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>37</v>
       </c>
@@ -5968,7 +5968,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -5982,7 +5982,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -5996,7 +5996,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -6010,7 +6010,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -6024,7 +6024,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>460</v>
       </c>
@@ -6044,7 +6044,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -6058,7 +6058,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -6072,7 +6072,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>71</v>
       </c>
@@ -6086,7 +6086,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>217</v>
       </c>
@@ -6106,7 +6106,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -6120,7 +6120,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -6134,7 +6134,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>474</v>
       </c>
@@ -6167,21 +6167,21 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>237</v>
       </c>
@@ -6235,21 +6235,21 @@
   </sheetPr>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -6269,7 +6269,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>249</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>4</v>
       </c>
@@ -6303,7 +6303,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>3</v>
       </c>
@@ -6317,7 +6317,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>2</v>
       </c>
@@ -6331,7 +6331,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>423</v>
       </c>
@@ -6351,7 +6351,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -6365,7 +6365,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -6379,7 +6379,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -6399,7 +6399,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>37</v>
       </c>
@@ -6413,7 +6413,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>4</v>
       </c>
@@ -6427,7 +6427,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -6455,7 +6455,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -6469,7 +6469,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>71</v>
       </c>
@@ -6483,7 +6483,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>316</v>
       </c>
@@ -6503,7 +6503,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -6531,21 +6531,21 @@
   </sheetPr>
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -6565,7 +6565,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>214</v>
       </c>
@@ -6585,7 +6585,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -6599,7 +6599,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -6627,7 +6627,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>71</v>
       </c>
@@ -6641,7 +6641,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -6661,7 +6661,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>37</v>
       </c>
@@ -6675,7 +6675,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -6689,7 +6689,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>251</v>
       </c>
@@ -6709,7 +6709,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>4</v>
       </c>
@@ -6723,7 +6723,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>217</v>
       </c>
@@ -6743,7 +6743,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -6757,7 +6757,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -6771,7 +6771,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>0</v>
       </c>
@@ -6799,7 +6799,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>71</v>
       </c>
@@ -6813,7 +6813,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>201</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -6847,7 +6847,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>236</v>
       </c>
@@ -6864,7 +6864,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>243</v>
       </c>
@@ -6884,7 +6884,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -6898,7 +6898,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>2</v>
       </c>
@@ -6912,7 +6912,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>59</v>
       </c>
@@ -6932,7 +6932,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>37</v>
       </c>
@@ -6946,7 +6946,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>4</v>
       </c>
@@ -6960,7 +6960,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -6974,7 +6974,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>2</v>
       </c>
@@ -6988,7 +6988,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>249</v>
       </c>
@@ -7008,7 +7008,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -7022,7 +7022,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -7036,7 +7036,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>0</v>
       </c>
@@ -7050,7 +7050,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>71</v>
       </c>
@@ -7064,7 +7064,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>65</v>
       </c>
@@ -7084,7 +7084,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>37</v>
       </c>
@@ -7098,7 +7098,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>4</v>
       </c>
@@ -7112,7 +7112,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -7126,7 +7126,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>2</v>
       </c>
@@ -7140,7 +7140,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>0</v>
       </c>
@@ -7154,7 +7154,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>71</v>
       </c>
@@ -7168,7 +7168,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>233</v>
       </c>
@@ -7188,7 +7188,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>116</v>
       </c>
@@ -7202,7 +7202,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>116</v>
       </c>
@@ -7216,7 +7216,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>0</v>
       </c>
@@ -7230,7 +7230,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>71</v>
       </c>
@@ -7257,21 +7257,21 @@
   </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -7291,7 +7291,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>242</v>
       </c>
@@ -7311,7 +7311,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -7325,7 +7325,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -7339,7 +7339,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -7353,7 +7353,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>71</v>
       </c>
@@ -7367,7 +7367,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -7387,7 +7387,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>37</v>
       </c>
@@ -7401,7 +7401,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -7415,7 +7415,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -7429,7 +7429,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -7443,7 +7443,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>0</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>71</v>
       </c>
@@ -7471,7 +7471,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>236</v>
       </c>
@@ -7488,7 +7488,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>560</v>
       </c>
@@ -7499,7 +7499,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>196</v>
       </c>
@@ -7519,7 +7519,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>2</v>
       </c>
@@ -7533,7 +7533,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>0</v>
       </c>
@@ -7547,7 +7547,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>71</v>
       </c>
@@ -7561,7 +7561,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>251</v>
       </c>
@@ -7581,7 +7581,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>4</v>
       </c>
@@ -7595,7 +7595,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -7609,7 +7609,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>217</v>
       </c>
@@ -7629,7 +7629,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>4</v>
       </c>
@@ -7643,7 +7643,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -7657,7 +7657,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>2</v>
       </c>
@@ -7671,7 +7671,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>53</v>
       </c>
@@ -7691,7 +7691,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>37</v>
       </c>
@@ -7705,7 +7705,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>346</v>
       </c>
@@ -7725,7 +7725,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -7739,7 +7739,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>423</v>
       </c>
@@ -7772,21 +7772,21 @@
   </sheetPr>
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -7806,7 +7806,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>214</v>
       </c>
@@ -7826,7 +7826,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -7840,7 +7840,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -7854,7 +7854,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -7868,7 +7868,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -7888,7 +7888,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>37</v>
       </c>
@@ -7902,7 +7902,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -7916,7 +7916,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -7930,7 +7930,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -7944,7 +7944,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -7958,7 +7958,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>217</v>
       </c>
@@ -7978,7 +7978,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>37</v>
       </c>
@@ -7992,7 +7992,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -8006,7 +8006,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>346</v>
       </c>
@@ -8026,7 +8026,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -8040,7 +8040,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>2</v>
       </c>
@@ -8054,7 +8054,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>0</v>
       </c>
@@ -8068,7 +8068,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>59</v>
       </c>
@@ -8088,7 +8088,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>37</v>
       </c>
@@ -8102,7 +8102,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>4</v>
       </c>
@@ -8116,7 +8116,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -8130,7 +8130,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>585</v>
       </c>
@@ -8150,7 +8150,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>4</v>
       </c>
@@ -8164,7 +8164,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -8178,7 +8178,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>2</v>
       </c>
@@ -8192,7 +8192,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -8212,7 +8212,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>37</v>
       </c>
@@ -8240,21 +8240,21 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -8274,7 +8274,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>237</v>
       </c>
@@ -8308,21 +8308,21 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -8342,7 +8342,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>237</v>
       </c>
@@ -8375,21 +8375,21 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -8409,7 +8409,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>237</v>
       </c>
@@ -8442,21 +8442,21 @@
   </sheetPr>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -8476,7 +8476,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>263</v>
       </c>
@@ -8496,7 +8496,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -8510,7 +8510,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -8524,7 +8524,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -8538,7 +8538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>71</v>
       </c>
@@ -8552,7 +8552,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>258</v>
       </c>
@@ -8572,7 +8572,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -8586,7 +8586,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -8600,7 +8600,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -8614,7 +8614,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>71</v>
       </c>
@@ -8628,7 +8628,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>263</v>
       </c>
@@ -8648,7 +8648,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -8662,7 +8662,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>277</v>
       </c>
@@ -8682,7 +8682,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>7</v>
       </c>
@@ -8696,7 +8696,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>6</v>
       </c>
@@ -8710,7 +8710,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -8724,7 +8724,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -8738,7 +8738,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -8766,21 +8766,21 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -8800,7 +8800,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>237</v>
       </c>
@@ -8833,21 +8833,21 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -8867,7 +8867,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>237</v>
       </c>
@@ -8900,21 +8900,21 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -8934,7 +8934,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>237</v>
       </c>
@@ -8967,21 +8967,21 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -9001,7 +9001,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>237</v>
       </c>
@@ -9034,21 +9034,21 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -9068,7 +9068,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>235</v>
       </c>
@@ -9088,11 +9088,11 @@
         <v>256</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>257</v>
       </c>
@@ -9112,11 +9112,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -9149,21 +9149,21 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -9183,7 +9183,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>252</v>
       </c>
@@ -9203,7 +9203,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>251</v>
       </c>
@@ -9236,22 +9236,22 @@
   </sheetPr>
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>229</v>
       </c>
@@ -9271,7 +9271,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1997</v>
       </c>
@@ -9293,7 +9293,7 @@
       </c>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1998</v>
       </c>
@@ -9314,7 +9314,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1999</v>
       </c>
@@ -9335,7 +9335,7 @@
         <v>0.77500000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2000</v>
       </c>
@@ -9356,7 +9356,7 @@
         <v>0.43333333333333335</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2001</v>
       </c>
@@ -9377,7 +9377,7 @@
         <v>0.69090909090909092</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2002</v>
       </c>
@@ -9398,7 +9398,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2003</v>
       </c>
@@ -9419,7 +9419,7 @@
         <v>0.8666666666666667</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2004</v>
       </c>
@@ -9440,7 +9440,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2005</v>
       </c>
@@ -9462,7 +9462,7 @@
       </c>
       <c r="N10" s="7"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2006</v>
       </c>
@@ -9484,7 +9484,7 @@
       </c>
       <c r="N11" s="7"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2007</v>
       </c>
@@ -9506,7 +9506,7 @@
       </c>
       <c r="N12" s="7"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2008</v>
       </c>
@@ -9528,7 +9528,7 @@
       </c>
       <c r="N13" s="7"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2009</v>
       </c>
@@ -9550,7 +9550,7 @@
       </c>
       <c r="N14" s="7"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2010</v>
       </c>
@@ -9571,7 +9571,7 @@
         <v>0.84210526315789469</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2011</v>
       </c>
@@ -9592,7 +9592,7 @@
         <v>0.69565217391304346</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2012</v>
       </c>
@@ -9613,7 +9613,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2013</v>
       </c>
@@ -9634,7 +9634,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2014</v>
       </c>
@@ -9655,7 +9655,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2015</v>
       </c>
@@ -9676,7 +9676,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2016</v>
       </c>
@@ -9697,7 +9697,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2017</v>
       </c>
@@ -9718,7 +9718,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2018</v>
       </c>
@@ -9739,7 +9739,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2019</v>
       </c>
@@ -9760,7 +9760,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2020</v>
       </c>
@@ -9781,7 +9781,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2021</v>
       </c>
@@ -9802,7 +9802,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>128</v>
       </c>
@@ -9827,7 +9827,7 @@
         <v>0.75096525096525102</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>246</v>
       </c>
@@ -9874,21 +9874,21 @@
   </sheetPr>
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -9908,7 +9908,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>285</v>
       </c>
@@ -9928,7 +9928,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -9942,7 +9942,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -9956,7 +9956,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -9970,7 +9970,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>71</v>
       </c>
@@ -9984,7 +9984,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>290</v>
       </c>
@@ -10004,7 +10004,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>7</v>
       </c>
@@ -10018,7 +10018,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>6</v>
       </c>
@@ -10032,7 +10032,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>4</v>
       </c>
@@ -10046,7 +10046,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>3</v>
       </c>
@@ -10060,7 +10060,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>2</v>
       </c>
@@ -10074,7 +10074,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>0</v>
       </c>
@@ -10088,7 +10088,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>71</v>
       </c>
@@ -10102,7 +10102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>300</v>
       </c>
@@ -10122,7 +10122,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -10136,7 +10136,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>2</v>
       </c>
@@ -10150,7 +10150,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>0</v>
       </c>
@@ -10164,7 +10164,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>306</v>
       </c>
@@ -10184,7 +10184,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>7</v>
       </c>
@@ -10198,7 +10198,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>6</v>
       </c>
@@ -10212,7 +10212,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>4</v>
       </c>
@@ -10226,7 +10226,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -10240,7 +10240,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -10254,7 +10254,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>59</v>
       </c>
@@ -10274,7 +10274,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>7</v>
       </c>
@@ -10288,7 +10288,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>6</v>
       </c>
@@ -10302,7 +10302,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>36</v>
       </c>
@@ -10316,7 +10316,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>37</v>
       </c>
@@ -10330,7 +10330,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>4</v>
       </c>
@@ -10344,7 +10344,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -10358,7 +10358,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>313</v>
       </c>
@@ -10378,7 +10378,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>65</v>
       </c>
@@ -10398,7 +10398,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>37</v>
       </c>
@@ -10412,7 +10412,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>4</v>
       </c>
@@ -10426,7 +10426,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>316</v>
       </c>
@@ -10446,7 +10446,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>7</v>
       </c>
@@ -10460,7 +10460,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>6</v>
       </c>
@@ -10474,7 +10474,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>4</v>
       </c>
@@ -10488,7 +10488,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -10502,7 +10502,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>2</v>
       </c>
@@ -10516,7 +10516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>0</v>
       </c>
@@ -10530,7 +10530,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>71</v>
       </c>
@@ -10544,7 +10544,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>322</v>
       </c>
@@ -10564,7 +10564,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -10578,7 +10578,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>2</v>
       </c>
@@ -10592,7 +10592,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>0</v>
       </c>
@@ -10606,7 +10606,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>71</v>
       </c>
@@ -10620,7 +10620,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>326</v>
       </c>
@@ -10640,7 +10640,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>327</v>
       </c>
@@ -10673,21 +10673,21 @@
   </sheetPr>
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -10707,7 +10707,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>234</v>
       </c>
@@ -10727,7 +10727,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -10741,7 +10741,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -10755,7 +10755,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -10769,7 +10769,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>71</v>
       </c>
@@ -10783,7 +10783,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -10803,7 +10803,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>90</v>
       </c>
@@ -10823,7 +10823,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -10837,7 +10837,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>251</v>
       </c>
@@ -10857,7 +10857,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>4</v>
       </c>
@@ -10871,7 +10871,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -10885,7 +10885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>217</v>
       </c>
@@ -10905,7 +10905,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -10919,7 +10919,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -10933,7 +10933,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>236</v>
       </c>
@@ -10950,7 +10950,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>50</v>
       </c>
@@ -10961,7 +10961,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>342</v>
       </c>
@@ -10972,7 +10972,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>343</v>
       </c>
@@ -10992,7 +10992,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -11006,7 +11006,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -11026,7 +11026,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>346</v>
       </c>
@@ -11046,7 +11046,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>3</v>
       </c>
@@ -11060,7 +11060,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>59</v>
       </c>
@@ -11080,7 +11080,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>36</v>
       </c>
@@ -11094,7 +11094,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>194</v>
       </c>
@@ -11114,7 +11114,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>161</v>
       </c>
@@ -11134,7 +11134,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>351</v>
       </c>
@@ -11154,7 +11154,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -11168,7 +11168,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>2</v>
       </c>
@@ -11182,7 +11182,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>65</v>
       </c>
@@ -11202,7 +11202,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>37</v>
       </c>
@@ -11216,7 +11216,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>316</v>
       </c>
@@ -11236,7 +11236,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>3</v>
       </c>
@@ -11250,7 +11250,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>2</v>
       </c>
@@ -11264,7 +11264,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>245</v>
       </c>
@@ -11284,7 +11284,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -11298,7 +11298,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>2</v>
       </c>
@@ -11312,7 +11312,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>0</v>
       </c>
@@ -11326,7 +11326,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>71</v>
       </c>
@@ -11340,7 +11340,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>239</v>
       </c>
@@ -11360,7 +11360,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>3</v>
       </c>
@@ -11374,7 +11374,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>2</v>
       </c>
@@ -11388,7 +11388,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>0</v>
       </c>
@@ -11402,7 +11402,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>71</v>
       </c>
@@ -11416,7 +11416,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>233</v>
       </c>
@@ -11436,7 +11436,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>2</v>
       </c>
@@ -11450,7 +11450,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>236</v>
       </c>
@@ -11480,21 +11480,21 @@
   </sheetPr>
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -11514,7 +11514,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>242</v>
       </c>
@@ -11534,7 +11534,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -11548,7 +11548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -11568,7 +11568,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>37</v>
       </c>
@@ -11582,7 +11582,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -11596,7 +11596,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -11610,7 +11610,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>120</v>
       </c>
@@ -11630,7 +11630,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -11644,7 +11644,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>251</v>
       </c>
@@ -11664,7 +11664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>4</v>
       </c>
@@ -11678,7 +11678,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -11692,7 +11692,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>2</v>
       </c>
@@ -11706,7 +11706,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>0</v>
       </c>
@@ -11720,7 +11720,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>71</v>
       </c>
@@ -11734,8 +11734,8 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>217</v>
       </c>
@@ -11755,7 +11755,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -11769,7 +11769,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>3</v>
       </c>
@@ -11783,8 +11783,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>373</v>
       </c>
@@ -11804,7 +11804,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -11818,7 +11818,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>0</v>
       </c>
@@ -11832,7 +11832,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>376</v>
       </c>
@@ -11852,7 +11852,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -11872,7 +11872,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -11892,7 +11892,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>37</v>
       </c>
@@ -11906,7 +11906,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>4</v>
       </c>
@@ -11920,7 +11920,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -11934,7 +11934,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -11948,7 +11948,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>0</v>
       </c>
@@ -11962,7 +11962,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>71</v>
       </c>
@@ -11976,7 +11976,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>346</v>
       </c>
@@ -11996,7 +11996,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>2</v>
       </c>
@@ -12010,7 +12010,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>0</v>
       </c>
@@ -12024,7 +12024,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>71</v>
       </c>
@@ -12038,7 +12038,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>59</v>
       </c>
@@ -12058,7 +12058,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>37</v>
       </c>
@@ -12072,7 +12072,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>4</v>
       </c>
@@ -12086,7 +12086,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>3</v>
       </c>
@@ -12100,7 +12100,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>2</v>
       </c>
@@ -12114,7 +12114,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>390</v>
       </c>
@@ -12134,7 +12134,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -12148,7 +12148,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>2</v>
       </c>
@@ -12162,7 +12162,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>0</v>
       </c>
@@ -12176,7 +12176,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>194</v>
       </c>
@@ -12196,7 +12196,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>2</v>
       </c>
@@ -12210,7 +12210,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>0</v>
       </c>
@@ -12224,7 +12224,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>71</v>
       </c>
@@ -12238,7 +12238,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>393</v>
       </c>
@@ -12258,7 +12258,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>394</v>
       </c>
@@ -12278,7 +12278,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>3</v>
       </c>
@@ -12292,7 +12292,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>2</v>
       </c>
@@ -12306,7 +12306,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>351</v>
       </c>
@@ -12326,7 +12326,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>2</v>
       </c>
@@ -12340,7 +12340,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>0</v>
       </c>
@@ -12354,7 +12354,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>65</v>
       </c>
@@ -12374,7 +12374,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>37</v>
       </c>
@@ -12388,7 +12388,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>4</v>
       </c>
@@ -12402,7 +12402,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>3</v>
       </c>
@@ -12416,7 +12416,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>2</v>
       </c>
@@ -12430,7 +12430,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>98</v>
       </c>
@@ -12450,7 +12450,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>2</v>
       </c>
@@ -12464,7 +12464,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>0</v>
       </c>
@@ -12478,7 +12478,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>239</v>
       </c>
@@ -12498,7 +12498,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>2</v>
       </c>
@@ -12512,7 +12512,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>0</v>
       </c>
@@ -12526,7 +12526,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>71</v>
       </c>
@@ -12540,7 +12540,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>245</v>
       </c>
@@ -12560,7 +12560,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>316</v>
       </c>
@@ -12580,7 +12580,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>2</v>
       </c>
@@ -12594,7 +12594,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>0</v>
       </c>
@@ -12608,7 +12608,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>71</v>
       </c>
@@ -12622,7 +12622,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>233</v>
       </c>
@@ -12642,7 +12642,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>2</v>
       </c>
@@ -12656,7 +12656,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>0</v>
       </c>
@@ -12670,7 +12670,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>236</v>
       </c>
@@ -12700,21 +12700,21 @@
   </sheetPr>
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -12734,7 +12734,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>242</v>
       </c>
@@ -12754,7 +12754,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -12768,7 +12768,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -12782,7 +12782,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -12802,7 +12802,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>37</v>
       </c>
@@ -12816,7 +12816,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -12830,7 +12830,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -12844,7 +12844,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -12858,7 +12858,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -12872,7 +12872,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>251</v>
       </c>
@@ -12892,7 +12892,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>217</v>
       </c>
@@ -12912,7 +12912,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -12926,7 +12926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -12940,7 +12940,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -12954,7 +12954,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>236</v>
       </c>
@@ -12971,7 +12971,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>409</v>
       </c>
@@ -12991,7 +12991,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>2</v>
       </c>
@@ -13005,7 +13005,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>0</v>
       </c>
@@ -13019,7 +13019,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>71</v>
       </c>
@@ -13033,7 +13033,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>376</v>
       </c>
@@ -13053,7 +13053,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -13073,7 +13073,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -13087,7 +13087,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>2</v>
       </c>
@@ -13101,7 +13101,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>0</v>
       </c>
@@ -13115,7 +13115,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -13135,7 +13135,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>37</v>
       </c>
@@ -13149,7 +13149,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>4</v>
       </c>
@@ -13163,7 +13163,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>346</v>
       </c>
@@ -13183,7 +13183,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -13197,7 +13197,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>59</v>
       </c>
@@ -13217,7 +13217,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>37</v>
       </c>
@@ -13231,7 +13231,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>194</v>
       </c>
@@ -13251,7 +13251,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>2</v>
       </c>
@@ -13265,7 +13265,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>0</v>
       </c>
@@ -13279,7 +13279,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>71</v>
       </c>
@@ -13293,7 +13293,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>161</v>
       </c>
@@ -13313,7 +13313,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>3</v>
       </c>
@@ -13327,7 +13327,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>2</v>
       </c>
@@ -13341,7 +13341,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>448</v>
       </c>
@@ -13361,7 +13361,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>423</v>
       </c>
@@ -13381,7 +13381,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -13395,7 +13395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>65</v>
       </c>
@@ -13415,7 +13415,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>37</v>
       </c>
@@ -13429,7 +13429,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>4</v>
       </c>
@@ -13443,7 +13443,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -13457,7 +13457,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>98</v>
       </c>
@@ -13477,7 +13477,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>2</v>
       </c>
@@ -13491,7 +13491,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>0</v>
       </c>
@@ -13505,7 +13505,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>71</v>
       </c>
@@ -13519,7 +13519,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>239</v>
       </c>
@@ -13539,7 +13539,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>2</v>
       </c>
@@ -13553,7 +13553,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>0</v>
       </c>
@@ -13567,7 +13567,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>245</v>
       </c>
@@ -13587,7 +13587,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>3</v>
       </c>
@@ -13601,7 +13601,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>2</v>
       </c>
@@ -13615,7 +13615,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>0</v>
       </c>
@@ -13629,7 +13629,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>71</v>
       </c>
@@ -13643,7 +13643,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>431</v>
       </c>
@@ -13663,7 +13663,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>3</v>
       </c>
@@ -13677,7 +13677,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>2</v>
       </c>
@@ -13691,7 +13691,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>316</v>
       </c>
@@ -13711,7 +13711,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>2</v>
       </c>
@@ -13725,7 +13725,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>0</v>
       </c>
@@ -13739,7 +13739,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>71</v>
       </c>
@@ -13753,7 +13753,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>233</v>
       </c>
@@ -13773,7 +13773,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>2</v>
       </c>
@@ -13787,7 +13787,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>0</v>
       </c>
@@ -13801,7 +13801,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>71</v>
       </c>
@@ -13828,21 +13828,21 @@
   </sheetPr>
   <dimension ref="A1:F125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -13862,7 +13862,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>242</v>
       </c>
@@ -13882,7 +13882,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -13896,7 +13896,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
@@ -13912,7 +13912,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
@@ -13928,7 +13928,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -13948,7 +13948,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>37</v>
       </c>
@@ -13962,7 +13962,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -13976,7 +13976,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -13990,7 +13990,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -14004,7 +14004,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -14018,8 +14018,8 @@
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>460</v>
       </c>
@@ -14039,7 +14039,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -14053,7 +14053,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -14067,7 +14067,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>71</v>
       </c>
@@ -14081,7 +14081,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>120</v>
       </c>
@@ -14101,7 +14101,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>2</v>
       </c>
@@ -14115,7 +14115,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>0</v>
       </c>
@@ -14129,7 +14129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>71</v>
       </c>
@@ -14143,7 +14143,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>251</v>
       </c>
@@ -14163,7 +14163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>4</v>
       </c>
@@ -14177,7 +14177,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -14191,7 +14191,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -14205,7 +14205,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -14219,7 +14219,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>71</v>
       </c>
@@ -14233,7 +14233,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>217</v>
       </c>
@@ -14253,7 +14253,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>4</v>
       </c>
@@ -14267,7 +14267,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -14281,7 +14281,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -14295,7 +14295,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>0</v>
       </c>
@@ -14309,7 +14309,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>236</v>
       </c>
@@ -14326,7 +14326,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D38" t="s">
         <v>305</v>
       </c>
@@ -14337,7 +14337,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>376</v>
       </c>
@@ -14357,7 +14357,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -14371,7 +14371,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>2</v>
       </c>
@@ -14385,7 +14385,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>0</v>
       </c>
@@ -14399,7 +14399,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>71</v>
       </c>
@@ -14413,7 +14413,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -14433,7 +14433,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -14447,7 +14447,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>2</v>
       </c>
@@ -14461,7 +14461,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>0</v>
       </c>
@@ -14475,7 +14475,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>71</v>
       </c>
@@ -14489,7 +14489,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -14509,7 +14509,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>37</v>
       </c>
@@ -14523,7 +14523,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>4</v>
       </c>
@@ -14537,7 +14537,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -14551,7 +14551,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>2</v>
       </c>
@@ -14565,7 +14565,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>0</v>
       </c>
@@ -14579,7 +14579,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>71</v>
       </c>
@@ -14593,7 +14593,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>346</v>
       </c>
@@ -14613,7 +14613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>2</v>
       </c>
@@ -14627,7 +14627,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>0</v>
       </c>
@@ -14641,7 +14641,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>71</v>
       </c>
@@ -14655,8 +14655,8 @@
         <v>441</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>59</v>
       </c>
@@ -14676,7 +14676,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>37</v>
       </c>
@@ -14690,7 +14690,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>4</v>
       </c>
@@ -14704,7 +14704,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -14718,7 +14718,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>2</v>
       </c>
@@ -14732,7 +14732,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>0</v>
       </c>
@@ -14746,7 +14746,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>236</v>
       </c>
@@ -14763,7 +14763,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D73" t="s">
         <v>446</v>
       </c>
@@ -14774,7 +14774,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>194</v>
       </c>
@@ -14794,7 +14794,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>2</v>
       </c>
@@ -14808,7 +14808,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>0</v>
       </c>
@@ -14822,7 +14822,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>71</v>
       </c>
@@ -14836,7 +14836,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>161</v>
       </c>
@@ -14856,7 +14856,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>3</v>
       </c>
@@ -14870,7 +14870,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>2</v>
       </c>
@@ -14884,7 +14884,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>0</v>
       </c>
@@ -14898,7 +14898,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>71</v>
       </c>
@@ -14912,7 +14912,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>448</v>
       </c>
@@ -14932,7 +14932,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>3</v>
       </c>
@@ -14946,7 +14946,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>2</v>
       </c>
@@ -14960,7 +14960,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>0</v>
       </c>
@@ -14974,7 +14974,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>71</v>
       </c>
@@ -14988,7 +14988,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>423</v>
       </c>
@@ -15008,7 +15008,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>3</v>
       </c>
@@ -15022,7 +15022,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>65</v>
       </c>
@@ -15042,7 +15042,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
         <v>37</v>
       </c>
@@ -15056,7 +15056,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>4</v>
       </c>
@@ -15070,7 +15070,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>3</v>
       </c>
@@ -15084,7 +15084,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>2</v>
       </c>
@@ -15098,7 +15098,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
         <v>0</v>
       </c>
@@ -15112,7 +15112,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
         <v>71</v>
       </c>
@@ -15126,7 +15126,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>239</v>
       </c>
@@ -15146,7 +15146,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
         <v>2</v>
       </c>
@@ -15160,7 +15160,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C105" t="s">
         <v>0</v>
       </c>
@@ -15174,7 +15174,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>245</v>
       </c>
@@ -15194,7 +15194,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C108" t="s">
         <v>2</v>
       </c>
@@ -15208,7 +15208,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C109" t="s">
         <v>0</v>
       </c>
@@ -15222,7 +15222,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C110" t="s">
         <v>71</v>
       </c>
@@ -15236,7 +15236,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>431</v>
       </c>
@@ -15256,7 +15256,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C113" t="s">
         <v>2</v>
       </c>
@@ -15270,7 +15270,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C114" t="s">
         <v>0</v>
       </c>
@@ -15284,7 +15284,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>316</v>
       </c>
@@ -15304,7 +15304,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C117" t="s">
         <v>2</v>
       </c>
@@ -15318,7 +15318,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C118" t="s">
         <v>0</v>
       </c>
@@ -15332,7 +15332,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C119" t="s">
         <v>71</v>
       </c>
@@ -15346,7 +15346,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>233</v>
       </c>
@@ -15366,7 +15366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C122" t="s">
         <v>116</v>
       </c>
@@ -15380,7 +15380,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C123" t="s">
         <v>116</v>
       </c>
@@ -15394,7 +15394,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C124" t="s">
         <v>0</v>
       </c>
@@ -15408,7 +15408,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C125" t="s">
         <v>71</v>
       </c>
@@ -15436,21 +15436,21 @@
   </sheetPr>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -15470,7 +15470,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -15490,7 +15490,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>37</v>
       </c>
@@ -15504,7 +15504,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -15518,7 +15518,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -15532,7 +15532,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -15546,7 +15546,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -15560,7 +15560,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>71</v>
       </c>
@@ -15574,7 +15574,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>459</v>
       </c>
@@ -15594,7 +15594,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -15608,7 +15608,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -15622,7 +15622,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>71</v>
       </c>
@@ -15636,7 +15636,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>460</v>
       </c>
@@ -15656,7 +15656,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>2</v>
       </c>
@@ -15670,7 +15670,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>0</v>
       </c>
@@ -15684,7 +15684,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>71</v>
       </c>
@@ -15698,7 +15698,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>251</v>
       </c>
@@ -15718,7 +15718,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -15732,7 +15732,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>236</v>
       </c>
@@ -15749,7 +15749,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>463</v>
       </c>
@@ -15760,7 +15760,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>376</v>
       </c>
@@ -15780,7 +15780,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -15794,7 +15794,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>465</v>
       </c>
@@ -15814,7 +15814,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -15828,7 +15828,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>0</v>
       </c>
@@ -15856,21 +15856,21 @@
   </sheetPr>
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -15890,7 +15890,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>460</v>
       </c>
@@ -15910,7 +15910,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>4</v>
       </c>
@@ -15924,7 +15924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -15938,7 +15938,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>251</v>
       </c>
@@ -15958,7 +15958,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>37</v>
       </c>
@@ -15972,7 +15972,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -15986,7 +15986,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -16000,7 +16000,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -16014,7 +16014,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -16028,7 +16028,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>71</v>
       </c>
@@ -16042,7 +16042,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>217</v>
       </c>
@@ -16062,7 +16062,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>37</v>
       </c>
@@ -16076,7 +16076,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -16090,7 +16090,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -16104,7 +16104,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -16118,7 +16118,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>0</v>
       </c>
@@ -16132,7 +16132,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>71</v>
       </c>
@@ -16146,7 +16146,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>474</v>
       </c>
@@ -16166,7 +16166,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -16180,7 +16180,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -16194,7 +16194,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>0</v>
       </c>
@@ -16208,8 +16208,8 @@
         <v>475</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>376</v>
       </c>
@@ -16229,7 +16229,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -16243,7 +16243,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -16257,7 +16257,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>53</v>
       </c>
@@ -16277,7 +16277,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>37</v>
       </c>
@@ -16291,7 +16291,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>4</v>
       </c>
@@ -16305,7 +16305,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -16319,7 +16319,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>243</v>
       </c>
@@ -16339,7 +16339,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -16353,7 +16353,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>2</v>
       </c>
@@ -16367,7 +16367,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>0</v>
       </c>
@@ -16381,7 +16381,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>71</v>
       </c>
@@ -16395,7 +16395,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -16415,7 +16415,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>37</v>
       </c>
@@ -16429,7 +16429,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>4</v>
       </c>
@@ -16443,7 +16443,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>3</v>
       </c>
@@ -16457,7 +16457,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>236</v>
       </c>
@@ -16474,7 +16474,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D48" t="s">
         <v>375</v>
       </c>
@@ -16485,7 +16485,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>194</v>
       </c>
@@ -16505,7 +16505,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>2</v>
       </c>
@@ -16519,7 +16519,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>0</v>
       </c>
@@ -16533,7 +16533,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>71</v>
       </c>
@@ -16547,7 +16547,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>161</v>
       </c>
@@ -16567,7 +16567,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -16581,7 +16581,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>2</v>
       </c>
@@ -16595,7 +16595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>448</v>
       </c>
@@ -16615,7 +16615,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>3</v>
       </c>
@@ -16629,7 +16629,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>2</v>
       </c>
@@ -16643,7 +16643,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>0</v>
       </c>
@@ -16657,7 +16657,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>71</v>
       </c>
@@ -16671,7 +16671,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>423</v>
       </c>
@@ -16691,7 +16691,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>3</v>
       </c>
@@ -16705,7 +16705,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>2</v>
       </c>
@@ -16719,7 +16719,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>0</v>
       </c>
@@ -16733,7 +16733,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>71</v>
       </c>
@@ -16747,7 +16747,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>65</v>
       </c>
@@ -16767,7 +16767,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>37</v>
       </c>
@@ -16781,7 +16781,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>4</v>
       </c>
@@ -16795,7 +16795,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>3</v>
       </c>
@@ -16809,7 +16809,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>2</v>
       </c>
@@ -16823,7 +16823,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>0</v>
       </c>
@@ -16837,7 +16837,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>71</v>
       </c>
@@ -16851,7 +16851,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>245</v>
       </c>
@@ -16871,7 +16871,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>2</v>
       </c>
@@ -16885,7 +16885,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>465</v>
       </c>
@@ -16905,7 +16905,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>3</v>
       </c>
@@ -16919,7 +16919,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>2</v>
       </c>
@@ -16933,7 +16933,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>0</v>
       </c>
@@ -16947,7 +16947,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>71</v>
       </c>
@@ -16961,7 +16961,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>233</v>
       </c>
@@ -16981,7 +16981,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>116</v>
       </c>
@@ -16995,7 +16995,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>116</v>
       </c>

--- a/Tennis/WTA Tour/Kim Clijsters.xlsx
+++ b/Tennis/WTA Tour/Kim Clijsters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3359" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7E2652E-EBB3-4CD8-99F3-E2380D5F7B2D}"/>
+  <xr:revisionPtr revIDLastSave="3365" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F459B88-A7EA-44AB-8347-709CC15D02D0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="18" activeTab="27" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="28800" windowHeight="15285" firstSheet="18" activeTab="25" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="1997" sheetId="3" r:id="rId1"/>
@@ -39,8 +39,6 @@
     <sheet name="2020" sheetId="27" r:id="rId24"/>
     <sheet name="2021" sheetId="33" r:id="rId25"/>
     <sheet name="Stats" sheetId="1" r:id="rId26"/>
-    <sheet name="Wins-Losses" sheetId="34" r:id="rId27"/>
-    <sheet name="Winning Percentile Range" sheetId="35" r:id="rId28"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2220,7 +2218,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1D74-4F95-A0C1-CDAFF36A944F}"/>
+              <c16:uniqueId val="{00000000-DAB3-4FD8-9F7D-858CC63B7118}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2418,7 +2416,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1D74-4F95-A0C1-CDAFF36A944F}"/>
+              <c16:uniqueId val="{00000001-DAB3-4FD8-9F7D-858CC63B7118}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2720,6 +2718,11 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -3026,7 +3029,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CBDB-46A5-AB80-E6A02F5F5F06}"/>
+              <c16:uniqueId val="{00000001-0708-4B1A-8BE6-228E3E98A83F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3328,6 +3331,11 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -4417,46 +4425,31 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{207F744F-61CD-4575-A5D1-332BE404724A}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7394548D-F12D-4EC5-A523-6F2377EF6E3B}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8564880" cy="5821680"/>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB59302D-F9D8-292E-7D59-1820824F1C6A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A3C73D1-FB50-0108-9543-4521059EA808}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4469,27 +4462,30 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8656320" cy="6278880"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D16AF790-C235-C398-001B-86A588BA08FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F257257-8B57-4599-D362-942CB07D2D83}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4497,23 +4493,19 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4551,7 +4543,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4657,7 +4649,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4799,7 +4791,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4816,17 +4808,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -4846,7 +4838,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>258</v>
       </c>
@@ -4866,7 +4858,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -4880,7 +4872,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -4912,17 +4904,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -4942,7 +4934,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>242</v>
       </c>
@@ -4962,7 +4954,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -4976,7 +4968,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -4996,7 +4988,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>37</v>
       </c>
@@ -5010,7 +5002,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -5024,7 +5016,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -5038,7 +5030,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -5052,7 +5044,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>0</v>
       </c>
@@ -5066,8 +5058,8 @@
         <v>496</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>460</v>
       </c>
@@ -5087,7 +5079,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>2</v>
       </c>
@@ -5101,7 +5093,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>0</v>
       </c>
@@ -5115,7 +5107,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>71</v>
       </c>
@@ -5129,7 +5121,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>217</v>
       </c>
@@ -5149,7 +5141,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>236</v>
       </c>
@@ -5166,7 +5158,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>168</v>
       </c>
@@ -5177,7 +5169,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>474</v>
       </c>
@@ -5197,7 +5189,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>2</v>
       </c>
@@ -5211,7 +5203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>0</v>
       </c>
@@ -5225,7 +5217,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>71</v>
       </c>
@@ -5239,7 +5231,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -5259,7 +5251,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -5273,7 +5265,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>53</v>
       </c>
@@ -5293,7 +5285,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>37</v>
       </c>
@@ -5307,7 +5299,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>4</v>
       </c>
@@ -5321,7 +5313,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -5335,7 +5327,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -5349,7 +5341,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>0</v>
       </c>
@@ -5363,7 +5355,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>243</v>
       </c>
@@ -5383,7 +5375,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>2</v>
       </c>
@@ -5397,7 +5389,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>0</v>
       </c>
@@ -5411,7 +5403,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>59</v>
       </c>
@@ -5431,7 +5423,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>37</v>
       </c>
@@ -5445,7 +5437,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>4</v>
       </c>
@@ -5459,7 +5451,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -5473,7 +5465,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>2</v>
       </c>
@@ -5487,7 +5479,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>0</v>
       </c>
@@ -5501,7 +5493,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>236</v>
       </c>
@@ -5518,7 +5510,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
         <v>514</v>
       </c>
@@ -5529,7 +5521,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>194</v>
       </c>
@@ -5549,7 +5541,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>2</v>
       </c>
@@ -5563,7 +5555,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>0</v>
       </c>
@@ -5577,7 +5569,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>71</v>
       </c>
@@ -5591,7 +5583,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>161</v>
       </c>
@@ -5611,7 +5603,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>3</v>
       </c>
@@ -5625,7 +5617,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>2</v>
       </c>
@@ -5639,7 +5631,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>0</v>
       </c>
@@ -5653,7 +5645,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>71</v>
       </c>
@@ -5667,7 +5659,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>423</v>
       </c>
@@ -5687,7 +5679,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>465</v>
       </c>
@@ -5707,7 +5699,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>3</v>
       </c>
@@ -5721,7 +5713,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>2</v>
       </c>
@@ -5735,7 +5727,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>0</v>
       </c>
@@ -5749,7 +5741,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>71</v>
       </c>
@@ -5763,7 +5755,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>233</v>
       </c>
@@ -5783,7 +5775,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>116</v>
       </c>
@@ -5797,7 +5789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>116</v>
       </c>
@@ -5811,7 +5803,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>0</v>
       </c>
@@ -5842,17 +5834,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -5872,7 +5864,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>242</v>
       </c>
@@ -5892,7 +5884,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -5906,7 +5898,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -5920,7 +5912,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>71</v>
       </c>
@@ -5934,7 +5926,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -5954,7 +5946,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>37</v>
       </c>
@@ -5968,7 +5960,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -5982,7 +5974,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -5996,7 +5988,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -6010,7 +6002,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -6024,7 +6016,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>460</v>
       </c>
@@ -6044,7 +6036,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -6058,7 +6050,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -6072,7 +6064,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>71</v>
       </c>
@@ -6086,7 +6078,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>217</v>
       </c>
@@ -6106,7 +6098,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -6120,7 +6112,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -6134,7 +6126,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>474</v>
       </c>
@@ -6171,17 +6163,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -6201,7 +6193,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>237</v>
       </c>
@@ -6239,17 +6231,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -6269,7 +6261,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>249</v>
       </c>
@@ -6289,7 +6281,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>4</v>
       </c>
@@ -6303,7 +6295,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>3</v>
       </c>
@@ -6317,7 +6309,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>2</v>
       </c>
@@ -6331,7 +6323,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>423</v>
       </c>
@@ -6351,7 +6343,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -6365,7 +6357,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -6379,7 +6371,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -6399,7 +6391,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>37</v>
       </c>
@@ -6413,7 +6405,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>4</v>
       </c>
@@ -6427,7 +6419,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -6441,7 +6433,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -6455,7 +6447,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -6469,7 +6461,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>71</v>
       </c>
@@ -6483,7 +6475,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>316</v>
       </c>
@@ -6503,7 +6495,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -6535,17 +6527,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -6565,7 +6557,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>214</v>
       </c>
@@ -6585,7 +6577,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -6599,7 +6591,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -6613,7 +6605,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -6627,7 +6619,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>71</v>
       </c>
@@ -6641,7 +6633,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -6661,7 +6653,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>37</v>
       </c>
@@ -6675,7 +6667,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -6689,7 +6681,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>251</v>
       </c>
@@ -6709,7 +6701,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>4</v>
       </c>
@@ -6723,7 +6715,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>217</v>
       </c>
@@ -6743,7 +6735,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -6757,7 +6749,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -6771,7 +6763,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -6785,7 +6777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>0</v>
       </c>
@@ -6799,7 +6791,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>71</v>
       </c>
@@ -6813,7 +6805,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>201</v>
       </c>
@@ -6833,7 +6825,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -6847,7 +6839,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>236</v>
       </c>
@@ -6864,7 +6856,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>243</v>
       </c>
@@ -6884,7 +6876,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -6898,7 +6890,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>2</v>
       </c>
@@ -6912,7 +6904,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>59</v>
       </c>
@@ -6932,7 +6924,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>37</v>
       </c>
@@ -6946,7 +6938,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>4</v>
       </c>
@@ -6960,7 +6952,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -6974,7 +6966,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>2</v>
       </c>
@@ -6988,7 +6980,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>249</v>
       </c>
@@ -7008,7 +7000,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>3</v>
       </c>
@@ -7022,7 +7014,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -7036,7 +7028,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>0</v>
       </c>
@@ -7050,7 +7042,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>71</v>
       </c>
@@ -7064,7 +7056,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>65</v>
       </c>
@@ -7084,7 +7076,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>37</v>
       </c>
@@ -7098,7 +7090,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>4</v>
       </c>
@@ -7112,7 +7104,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -7126,7 +7118,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>2</v>
       </c>
@@ -7140,7 +7132,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>0</v>
       </c>
@@ -7154,7 +7146,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>71</v>
       </c>
@@ -7168,7 +7160,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>233</v>
       </c>
@@ -7188,7 +7180,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>116</v>
       </c>
@@ -7202,7 +7194,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>116</v>
       </c>
@@ -7216,7 +7208,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>0</v>
       </c>
@@ -7230,7 +7222,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>71</v>
       </c>
@@ -7261,17 +7253,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -7291,7 +7283,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>242</v>
       </c>
@@ -7311,7 +7303,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -7325,7 +7317,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -7339,7 +7331,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -7353,7 +7345,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>71</v>
       </c>
@@ -7367,7 +7359,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -7387,7 +7379,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>37</v>
       </c>
@@ -7401,7 +7393,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -7415,7 +7407,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -7429,7 +7421,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -7443,7 +7435,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>0</v>
       </c>
@@ -7457,7 +7449,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>71</v>
       </c>
@@ -7471,7 +7463,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>236</v>
       </c>
@@ -7488,7 +7480,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>560</v>
       </c>
@@ -7499,7 +7491,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>196</v>
       </c>
@@ -7519,7 +7511,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>2</v>
       </c>
@@ -7533,7 +7525,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>0</v>
       </c>
@@ -7547,7 +7539,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>71</v>
       </c>
@@ -7561,7 +7553,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>251</v>
       </c>
@@ -7581,7 +7573,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>4</v>
       </c>
@@ -7595,7 +7587,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -7609,7 +7601,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>217</v>
       </c>
@@ -7629,7 +7621,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>4</v>
       </c>
@@ -7643,7 +7635,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -7657,7 +7649,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>2</v>
       </c>
@@ -7671,7 +7663,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>53</v>
       </c>
@@ -7691,7 +7683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>37</v>
       </c>
@@ -7705,7 +7697,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>346</v>
       </c>
@@ -7725,7 +7717,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -7739,7 +7731,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>423</v>
       </c>
@@ -7776,17 +7768,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -7806,7 +7798,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>214</v>
       </c>
@@ -7826,7 +7818,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -7840,7 +7832,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -7854,7 +7846,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -7868,7 +7860,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -7888,7 +7880,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>37</v>
       </c>
@@ -7902,7 +7894,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -7916,7 +7908,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -7930,7 +7922,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -7944,7 +7936,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -7958,7 +7950,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>217</v>
       </c>
@@ -7978,7 +7970,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>37</v>
       </c>
@@ -7992,7 +7984,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -8006,7 +7998,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>346</v>
       </c>
@@ -8026,7 +8018,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -8040,7 +8032,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>2</v>
       </c>
@@ -8054,7 +8046,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>0</v>
       </c>
@@ -8068,7 +8060,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>59</v>
       </c>
@@ -8088,7 +8080,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>37</v>
       </c>
@@ -8102,7 +8094,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>4</v>
       </c>
@@ -8116,7 +8108,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -8130,7 +8122,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>585</v>
       </c>
@@ -8150,7 +8142,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>4</v>
       </c>
@@ -8164,7 +8156,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -8178,7 +8170,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>2</v>
       </c>
@@ -8192,7 +8184,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -8212,7 +8204,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>37</v>
       </c>
@@ -8244,17 +8236,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -8274,7 +8266,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>237</v>
       </c>
@@ -8312,17 +8304,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -8342,7 +8334,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>237</v>
       </c>
@@ -8379,17 +8371,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -8409,7 +8401,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>237</v>
       </c>
@@ -8446,17 +8438,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -8476,7 +8468,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>263</v>
       </c>
@@ -8496,7 +8488,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -8510,7 +8502,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -8524,7 +8516,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -8538,7 +8530,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>71</v>
       </c>
@@ -8552,7 +8544,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>258</v>
       </c>
@@ -8572,7 +8564,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -8586,7 +8578,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -8600,7 +8592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -8614,7 +8606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>71</v>
       </c>
@@ -8628,7 +8620,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>263</v>
       </c>
@@ -8648,7 +8640,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -8662,7 +8654,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>277</v>
       </c>
@@ -8682,7 +8674,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>7</v>
       </c>
@@ -8696,7 +8688,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>6</v>
       </c>
@@ -8710,7 +8702,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -8724,7 +8716,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -8738,7 +8730,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -8770,17 +8762,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -8800,7 +8792,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>237</v>
       </c>
@@ -8837,17 +8829,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -8867,7 +8859,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>237</v>
       </c>
@@ -8904,17 +8896,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -8934,7 +8926,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>237</v>
       </c>
@@ -8971,17 +8963,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -9001,7 +8993,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>237</v>
       </c>
@@ -9038,17 +9030,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -9068,7 +9060,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>235</v>
       </c>
@@ -9088,11 +9080,11 @@
         <v>256</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>257</v>
       </c>
@@ -9112,11 +9104,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -9153,17 +9145,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -9183,7 +9175,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>252</v>
       </c>
@@ -9203,7 +9195,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>251</v>
       </c>
@@ -9236,22 +9228,22 @@
   </sheetPr>
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>229</v>
       </c>
@@ -9271,7 +9263,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1997</v>
       </c>
@@ -9293,7 +9285,7 @@
       </c>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1998</v>
       </c>
@@ -9314,7 +9306,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1999</v>
       </c>
@@ -9335,7 +9327,7 @@
         <v>0.77500000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2000</v>
       </c>
@@ -9356,7 +9348,7 @@
         <v>0.43333333333333335</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2001</v>
       </c>
@@ -9377,7 +9369,7 @@
         <v>0.69090909090909092</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2002</v>
       </c>
@@ -9398,7 +9390,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2003</v>
       </c>
@@ -9419,7 +9411,7 @@
         <v>0.8666666666666667</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2004</v>
       </c>
@@ -9440,7 +9432,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2005</v>
       </c>
@@ -9462,7 +9454,7 @@
       </c>
       <c r="N10" s="7"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2006</v>
       </c>
@@ -9484,7 +9476,7 @@
       </c>
       <c r="N11" s="7"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2007</v>
       </c>
@@ -9506,7 +9498,7 @@
       </c>
       <c r="N12" s="7"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2008</v>
       </c>
@@ -9528,7 +9520,7 @@
       </c>
       <c r="N13" s="7"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2009</v>
       </c>
@@ -9550,7 +9542,7 @@
       </c>
       <c r="N14" s="7"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2010</v>
       </c>
@@ -9571,7 +9563,7 @@
         <v>0.84210526315789469</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2011</v>
       </c>
@@ -9592,7 +9584,7 @@
         <v>0.69565217391304346</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2012</v>
       </c>
@@ -9613,7 +9605,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2013</v>
       </c>
@@ -9634,7 +9626,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2014</v>
       </c>
@@ -9655,7 +9647,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2015</v>
       </c>
@@ -9676,7 +9668,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2016</v>
       </c>
@@ -9697,7 +9689,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2017</v>
       </c>
@@ -9718,7 +9710,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2018</v>
       </c>
@@ -9739,7 +9731,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2019</v>
       </c>
@@ -9760,7 +9752,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2020</v>
       </c>
@@ -9781,7 +9773,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2021</v>
       </c>
@@ -9802,7 +9794,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>128</v>
       </c>
@@ -9827,7 +9819,7 @@
         <v>0.75096525096525102</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>246</v>
       </c>
@@ -9864,6 +9856,7 @@
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -9878,17 +9871,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -9908,7 +9901,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>285</v>
       </c>
@@ -9928,7 +9921,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -9942,7 +9935,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -9956,7 +9949,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -9970,7 +9963,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>71</v>
       </c>
@@ -9984,7 +9977,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>290</v>
       </c>
@@ -10004,7 +9997,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>7</v>
       </c>
@@ -10018,7 +10011,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>6</v>
       </c>
@@ -10032,7 +10025,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>4</v>
       </c>
@@ -10046,7 +10039,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>3</v>
       </c>
@@ -10060,7 +10053,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>2</v>
       </c>
@@ -10074,7 +10067,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>0</v>
       </c>
@@ -10088,7 +10081,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>71</v>
       </c>
@@ -10102,7 +10095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>300</v>
       </c>
@@ -10122,7 +10115,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -10136,7 +10129,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>2</v>
       </c>
@@ -10150,7 +10143,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>0</v>
       </c>
@@ -10164,7 +10157,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>306</v>
       </c>
@@ -10184,7 +10177,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>7</v>
       </c>
@@ -10198,7 +10191,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>6</v>
       </c>
@@ -10212,7 +10205,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>4</v>
       </c>
@@ -10226,7 +10219,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -10240,7 +10233,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -10254,7 +10247,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>59</v>
       </c>
@@ -10274,7 +10267,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>7</v>
       </c>
@@ -10288,7 +10281,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>6</v>
       </c>
@@ -10302,7 +10295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>36</v>
       </c>
@@ -10316,7 +10309,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>37</v>
       </c>
@@ -10330,7 +10323,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>4</v>
       </c>
@@ -10344,7 +10337,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -10358,7 +10351,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>313</v>
       </c>
@@ -10378,7 +10371,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>65</v>
       </c>
@@ -10398,7 +10391,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>37</v>
       </c>
@@ -10412,7 +10405,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>4</v>
       </c>
@@ -10426,7 +10419,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>316</v>
       </c>
@@ -10446,7 +10439,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>7</v>
       </c>
@@ -10460,7 +10453,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>6</v>
       </c>
@@ -10474,7 +10467,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>4</v>
       </c>
@@ -10488,7 +10481,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -10502,7 +10495,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>2</v>
       </c>
@@ -10516,7 +10509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>0</v>
       </c>
@@ -10530,7 +10523,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>71</v>
       </c>
@@ -10544,7 +10537,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>322</v>
       </c>
@@ -10564,7 +10557,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -10578,7 +10571,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>2</v>
       </c>
@@ -10592,7 +10585,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>0</v>
       </c>
@@ -10606,7 +10599,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>71</v>
       </c>
@@ -10620,7 +10613,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>326</v>
       </c>
@@ -10640,7 +10633,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>327</v>
       </c>
@@ -10677,17 +10670,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -10707,7 +10700,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>234</v>
       </c>
@@ -10727,7 +10720,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -10741,7 +10734,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -10755,7 +10748,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -10769,7 +10762,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>71</v>
       </c>
@@ -10783,7 +10776,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -10803,7 +10796,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>90</v>
       </c>
@@ -10823,7 +10816,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -10837,7 +10830,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>251</v>
       </c>
@@ -10857,7 +10850,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>4</v>
       </c>
@@ -10871,7 +10864,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -10885,7 +10878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>217</v>
       </c>
@@ -10905,7 +10898,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -10919,7 +10912,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -10933,7 +10926,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>236</v>
       </c>
@@ -10950,7 +10943,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>50</v>
       </c>
@@ -10961,7 +10954,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>342</v>
       </c>
@@ -10972,7 +10965,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>343</v>
       </c>
@@ -10992,7 +10985,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -11006,7 +10999,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -11026,7 +11019,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>346</v>
       </c>
@@ -11046,7 +11039,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>3</v>
       </c>
@@ -11060,7 +11053,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>59</v>
       </c>
@@ -11080,7 +11073,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>36</v>
       </c>
@@ -11094,7 +11087,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>194</v>
       </c>
@@ -11114,7 +11107,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>161</v>
       </c>
@@ -11134,7 +11127,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>351</v>
       </c>
@@ -11154,7 +11147,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -11168,7 +11161,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>2</v>
       </c>
@@ -11182,7 +11175,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>65</v>
       </c>
@@ -11202,7 +11195,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>37</v>
       </c>
@@ -11216,7 +11209,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>316</v>
       </c>
@@ -11236,7 +11229,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>3</v>
       </c>
@@ -11250,7 +11243,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>2</v>
       </c>
@@ -11264,7 +11257,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>245</v>
       </c>
@@ -11284,7 +11277,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -11298,7 +11291,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>2</v>
       </c>
@@ -11312,7 +11305,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>0</v>
       </c>
@@ -11326,7 +11319,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>71</v>
       </c>
@@ -11340,7 +11333,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>239</v>
       </c>
@@ -11360,7 +11353,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>3</v>
       </c>
@@ -11374,7 +11367,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>2</v>
       </c>
@@ -11388,7 +11381,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>0</v>
       </c>
@@ -11402,7 +11395,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>71</v>
       </c>
@@ -11416,7 +11409,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>233</v>
       </c>
@@ -11436,7 +11429,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>2</v>
       </c>
@@ -11450,7 +11443,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>236</v>
       </c>
@@ -11484,17 +11477,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -11514,7 +11507,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>242</v>
       </c>
@@ -11534,7 +11527,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -11548,7 +11541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -11568,7 +11561,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>37</v>
       </c>
@@ -11582,7 +11575,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -11596,7 +11589,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -11610,7 +11603,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>120</v>
       </c>
@@ -11630,7 +11623,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -11644,7 +11637,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>251</v>
       </c>
@@ -11664,7 +11657,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>4</v>
       </c>
@@ -11678,7 +11671,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -11692,7 +11685,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>2</v>
       </c>
@@ -11706,7 +11699,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>0</v>
       </c>
@@ -11720,7 +11713,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>71</v>
       </c>
@@ -11734,8 +11727,8 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>217</v>
       </c>
@@ -11755,7 +11748,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -11769,7 +11762,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>3</v>
       </c>
@@ -11783,8 +11776,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>373</v>
       </c>
@@ -11804,7 +11797,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -11818,7 +11811,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>0</v>
       </c>
@@ -11832,7 +11825,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>376</v>
       </c>
@@ -11852,7 +11845,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -11872,7 +11865,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -11892,7 +11885,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>37</v>
       </c>
@@ -11906,7 +11899,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>4</v>
       </c>
@@ -11920,7 +11913,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -11934,7 +11927,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -11948,7 +11941,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>0</v>
       </c>
@@ -11962,7 +11955,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>71</v>
       </c>
@@ -11976,7 +11969,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>346</v>
       </c>
@@ -11996,7 +11989,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>2</v>
       </c>
@@ -12010,7 +12003,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>0</v>
       </c>
@@ -12024,7 +12017,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>71</v>
       </c>
@@ -12038,7 +12031,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>59</v>
       </c>
@@ -12058,7 +12051,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>37</v>
       </c>
@@ -12072,7 +12065,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>4</v>
       </c>
@@ -12086,7 +12079,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>3</v>
       </c>
@@ -12100,7 +12093,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>2</v>
       </c>
@@ -12114,7 +12107,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>390</v>
       </c>
@@ -12134,7 +12127,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -12148,7 +12141,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>2</v>
       </c>
@@ -12162,7 +12155,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>0</v>
       </c>
@@ -12176,7 +12169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>194</v>
       </c>
@@ -12196,7 +12189,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>2</v>
       </c>
@@ -12210,7 +12203,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>0</v>
       </c>
@@ -12224,7 +12217,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>71</v>
       </c>
@@ -12238,7 +12231,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>393</v>
       </c>
@@ -12258,7 +12251,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>394</v>
       </c>
@@ -12278,7 +12271,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>3</v>
       </c>
@@ -12292,7 +12285,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>2</v>
       </c>
@@ -12306,7 +12299,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>351</v>
       </c>
@@ -12326,7 +12319,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>2</v>
       </c>
@@ -12340,7 +12333,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>0</v>
       </c>
@@ -12354,7 +12347,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>65</v>
       </c>
@@ -12374,7 +12367,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>37</v>
       </c>
@@ -12388,7 +12381,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>4</v>
       </c>
@@ -12402,7 +12395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>3</v>
       </c>
@@ -12416,7 +12409,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>2</v>
       </c>
@@ -12430,7 +12423,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>98</v>
       </c>
@@ -12450,7 +12443,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>2</v>
       </c>
@@ -12464,7 +12457,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>0</v>
       </c>
@@ -12478,7 +12471,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>239</v>
       </c>
@@ -12498,7 +12491,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>2</v>
       </c>
@@ -12512,7 +12505,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>0</v>
       </c>
@@ -12526,7 +12519,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>71</v>
       </c>
@@ -12540,7 +12533,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>245</v>
       </c>
@@ -12560,7 +12553,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>316</v>
       </c>
@@ -12580,7 +12573,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>2</v>
       </c>
@@ -12594,7 +12587,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>0</v>
       </c>
@@ -12608,7 +12601,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>71</v>
       </c>
@@ -12622,7 +12615,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>233</v>
       </c>
@@ -12642,7 +12635,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>2</v>
       </c>
@@ -12656,7 +12649,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>0</v>
       </c>
@@ -12670,7 +12663,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>236</v>
       </c>
@@ -12704,17 +12697,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -12734,7 +12727,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>242</v>
       </c>
@@ -12754,7 +12747,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -12768,7 +12761,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -12782,7 +12775,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -12802,7 +12795,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>37</v>
       </c>
@@ -12816,7 +12809,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -12830,7 +12823,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -12844,7 +12837,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -12858,7 +12851,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -12872,7 +12865,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>251</v>
       </c>
@@ -12892,7 +12885,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>217</v>
       </c>
@@ -12912,7 +12905,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -12926,7 +12919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -12940,7 +12933,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -12954,7 +12947,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>236</v>
       </c>
@@ -12971,7 +12964,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>409</v>
       </c>
@@ -12991,7 +12984,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>2</v>
       </c>
@@ -13005,7 +12998,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>0</v>
       </c>
@@ -13019,7 +13012,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>71</v>
       </c>
@@ -13033,7 +13026,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>376</v>
       </c>
@@ -13053,7 +13046,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -13073,7 +13066,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -13087,7 +13080,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>2</v>
       </c>
@@ -13101,7 +13094,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>0</v>
       </c>
@@ -13115,7 +13108,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -13135,7 +13128,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>37</v>
       </c>
@@ -13149,7 +13142,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>4</v>
       </c>
@@ -13163,7 +13156,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>346</v>
       </c>
@@ -13183,7 +13176,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -13197,7 +13190,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>59</v>
       </c>
@@ -13217,7 +13210,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>37</v>
       </c>
@@ -13231,7 +13224,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>194</v>
       </c>
@@ -13251,7 +13244,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>2</v>
       </c>
@@ -13265,7 +13258,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>0</v>
       </c>
@@ -13279,7 +13272,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>71</v>
       </c>
@@ -13293,7 +13286,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>161</v>
       </c>
@@ -13313,7 +13306,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>3</v>
       </c>
@@ -13327,7 +13320,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>2</v>
       </c>
@@ -13341,7 +13334,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>448</v>
       </c>
@@ -13361,7 +13354,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>423</v>
       </c>
@@ -13381,7 +13374,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -13395,7 +13388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>65</v>
       </c>
@@ -13415,7 +13408,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>37</v>
       </c>
@@ -13429,7 +13422,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>4</v>
       </c>
@@ -13443,7 +13436,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -13457,7 +13450,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>98</v>
       </c>
@@ -13477,7 +13470,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>2</v>
       </c>
@@ -13491,7 +13484,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>0</v>
       </c>
@@ -13505,7 +13498,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>71</v>
       </c>
@@ -13519,7 +13512,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>239</v>
       </c>
@@ -13539,7 +13532,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>2</v>
       </c>
@@ -13553,7 +13546,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>0</v>
       </c>
@@ -13567,7 +13560,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>245</v>
       </c>
@@ -13587,7 +13580,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>3</v>
       </c>
@@ -13601,7 +13594,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>2</v>
       </c>
@@ -13615,7 +13608,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>0</v>
       </c>
@@ -13629,7 +13622,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>71</v>
       </c>
@@ -13643,7 +13636,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>431</v>
       </c>
@@ -13663,7 +13656,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>3</v>
       </c>
@@ -13677,7 +13670,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>2</v>
       </c>
@@ -13691,7 +13684,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>316</v>
       </c>
@@ -13711,7 +13704,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>2</v>
       </c>
@@ -13725,7 +13718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>0</v>
       </c>
@@ -13739,7 +13732,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>71</v>
       </c>
@@ -13753,7 +13746,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>233</v>
       </c>
@@ -13773,7 +13766,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>2</v>
       </c>
@@ -13787,7 +13780,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>0</v>
       </c>
@@ -13801,7 +13794,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>71</v>
       </c>
@@ -13832,17 +13825,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -13862,7 +13855,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>242</v>
       </c>
@@ -13882,7 +13875,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -13896,7 +13889,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
@@ -13912,7 +13905,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
@@ -13928,7 +13921,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -13948,7 +13941,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>37</v>
       </c>
@@ -13962,7 +13955,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -13976,7 +13969,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -13990,7 +13983,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -14004,7 +13997,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -14018,8 +14011,8 @@
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>460</v>
       </c>
@@ -14039,7 +14032,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -14053,7 +14046,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -14067,7 +14060,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>71</v>
       </c>
@@ -14081,7 +14074,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>120</v>
       </c>
@@ -14101,7 +14094,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>2</v>
       </c>
@@ -14115,7 +14108,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>0</v>
       </c>
@@ -14129,7 +14122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>71</v>
       </c>
@@ -14143,7 +14136,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>251</v>
       </c>
@@ -14163,7 +14156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>4</v>
       </c>
@@ -14177,7 +14170,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -14191,7 +14184,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -14205,7 +14198,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -14219,7 +14212,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>71</v>
       </c>
@@ -14233,7 +14226,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>217</v>
       </c>
@@ -14253,7 +14246,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>4</v>
       </c>
@@ -14267,7 +14260,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -14281,7 +14274,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -14295,7 +14288,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>0</v>
       </c>
@@ -14309,7 +14302,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>236</v>
       </c>
@@ -14326,7 +14319,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
         <v>305</v>
       </c>
@@ -14337,7 +14330,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>376</v>
       </c>
@@ -14357,7 +14350,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -14371,7 +14364,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>2</v>
       </c>
@@ -14385,7 +14378,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>0</v>
       </c>
@@ -14399,7 +14392,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>71</v>
       </c>
@@ -14413,7 +14406,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -14433,7 +14426,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -14447,7 +14440,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>2</v>
       </c>
@@ -14461,7 +14454,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>0</v>
       </c>
@@ -14475,7 +14468,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>71</v>
       </c>
@@ -14489,7 +14482,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -14509,7 +14502,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>37</v>
       </c>
@@ -14523,7 +14516,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>4</v>
       </c>
@@ -14537,7 +14530,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -14551,7 +14544,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>2</v>
       </c>
@@ -14565,7 +14558,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>0</v>
       </c>
@@ -14579,7 +14572,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>71</v>
       </c>
@@ -14593,7 +14586,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>346</v>
       </c>
@@ -14613,7 +14606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>2</v>
       </c>
@@ -14627,7 +14620,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>0</v>
       </c>
@@ -14641,7 +14634,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>71</v>
       </c>
@@ -14655,8 +14648,8 @@
         <v>441</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>59</v>
       </c>
@@ -14676,7 +14669,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>37</v>
       </c>
@@ -14690,7 +14683,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>4</v>
       </c>
@@ -14704,7 +14697,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -14718,7 +14711,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>2</v>
       </c>
@@ -14732,7 +14725,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>0</v>
       </c>
@@ -14746,7 +14739,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>236</v>
       </c>
@@ -14763,7 +14756,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
         <v>446</v>
       </c>
@@ -14774,7 +14767,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>194</v>
       </c>
@@ -14794,7 +14787,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>2</v>
       </c>
@@ -14808,7 +14801,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>0</v>
       </c>
@@ -14822,7 +14815,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>71</v>
       </c>
@@ -14836,7 +14829,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>161</v>
       </c>
@@ -14856,7 +14849,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>3</v>
       </c>
@@ -14870,7 +14863,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>2</v>
       </c>
@@ -14884,7 +14877,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>0</v>
       </c>
@@ -14898,7 +14891,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>71</v>
       </c>
@@ -14912,7 +14905,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>448</v>
       </c>
@@ -14932,7 +14925,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>3</v>
       </c>
@@ -14946,7 +14939,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>2</v>
       </c>
@@ -14960,7 +14953,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>0</v>
       </c>
@@ -14974,7 +14967,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>71</v>
       </c>
@@ -14988,7 +14981,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>423</v>
       </c>
@@ -15008,7 +15001,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>3</v>
       </c>
@@ -15022,7 +15015,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>65</v>
       </c>
@@ -15042,7 +15035,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>37</v>
       </c>
@@ -15056,7 +15049,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>4</v>
       </c>
@@ -15070,7 +15063,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>3</v>
       </c>
@@ -15084,7 +15077,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>2</v>
       </c>
@@ -15098,7 +15091,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>0</v>
       </c>
@@ -15112,7 +15105,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>71</v>
       </c>
@@ -15126,7 +15119,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>239</v>
       </c>
@@ -15146,7 +15139,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
         <v>2</v>
       </c>
@@ -15160,7 +15153,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
         <v>0</v>
       </c>
@@ -15174,7 +15167,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>245</v>
       </c>
@@ -15194,7 +15187,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
         <v>2</v>
       </c>
@@ -15208,7 +15201,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
         <v>0</v>
       </c>
@@ -15222,7 +15215,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
         <v>71</v>
       </c>
@@ -15236,7 +15229,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>431</v>
       </c>
@@ -15256,7 +15249,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C113" t="s">
         <v>2</v>
       </c>
@@ -15270,7 +15263,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C114" t="s">
         <v>0</v>
       </c>
@@ -15284,7 +15277,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>316</v>
       </c>
@@ -15304,7 +15297,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C117" t="s">
         <v>2</v>
       </c>
@@ -15318,7 +15311,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C118" t="s">
         <v>0</v>
       </c>
@@ -15332,7 +15325,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C119" t="s">
         <v>71</v>
       </c>
@@ -15346,7 +15339,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>233</v>
       </c>
@@ -15366,7 +15359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C122" t="s">
         <v>116</v>
       </c>
@@ -15380,7 +15373,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C123" t="s">
         <v>116</v>
       </c>
@@ -15394,7 +15387,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C124" t="s">
         <v>0</v>
       </c>
@@ -15408,7 +15401,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C125" t="s">
         <v>71</v>
       </c>
@@ -15440,17 +15433,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -15470,7 +15463,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -15490,7 +15483,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>37</v>
       </c>
@@ -15504,7 +15497,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -15518,7 +15511,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -15532,7 +15525,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -15546,7 +15539,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -15560,7 +15553,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>71</v>
       </c>
@@ -15574,7 +15567,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>459</v>
       </c>
@@ -15594,7 +15587,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -15608,7 +15601,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -15622,7 +15615,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>71</v>
       </c>
@@ -15636,7 +15629,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>460</v>
       </c>
@@ -15656,7 +15649,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>2</v>
       </c>
@@ -15670,7 +15663,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>0</v>
       </c>
@@ -15684,7 +15677,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>71</v>
       </c>
@@ -15698,7 +15691,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>251</v>
       </c>
@@ -15718,7 +15711,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -15732,7 +15725,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>236</v>
       </c>
@@ -15749,7 +15742,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>463</v>
       </c>
@@ -15760,7 +15753,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>376</v>
       </c>
@@ -15780,7 +15773,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>3</v>
       </c>
@@ -15794,7 +15787,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>465</v>
       </c>
@@ -15814,7 +15807,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -15828,7 +15821,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>0</v>
       </c>
@@ -15860,17 +15853,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -15890,7 +15883,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>460</v>
       </c>
@@ -15910,7 +15903,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>4</v>
       </c>
@@ -15924,7 +15917,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -15938,7 +15931,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>251</v>
       </c>
@@ -15958,7 +15951,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>37</v>
       </c>
@@ -15972,7 +15965,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -15986,7 +15979,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -16000,7 +15993,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -16014,7 +16007,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -16028,7 +16021,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>71</v>
       </c>
@@ -16042,7 +16035,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>217</v>
       </c>
@@ -16062,7 +16055,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>37</v>
       </c>
@@ -16076,7 +16069,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -16090,7 +16083,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -16104,7 +16097,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -16118,7 +16111,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>0</v>
       </c>
@@ -16132,7 +16125,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>71</v>
       </c>
@@ -16146,7 +16139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>474</v>
       </c>
@@ -16166,7 +16159,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -16180,7 +16173,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -16194,7 +16187,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>0</v>
       </c>
@@ -16208,8 +16201,8 @@
         <v>475</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>376</v>
       </c>
@@ -16229,7 +16222,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -16243,7 +16236,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -16257,7 +16250,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>53</v>
       </c>
@@ -16277,7 +16270,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>37</v>
       </c>
@@ -16291,7 +16284,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>4</v>
       </c>
@@ -16305,7 +16298,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -16319,7 +16312,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>243</v>
       </c>
@@ -16339,7 +16332,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -16353,7 +16346,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>2</v>
       </c>
@@ -16367,7 +16360,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>0</v>
       </c>
@@ -16381,7 +16374,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>71</v>
       </c>
@@ -16395,7 +16388,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -16415,7 +16408,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>37</v>
       </c>
@@ -16429,7 +16422,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>4</v>
       </c>
@@ -16443,7 +16436,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>3</v>
       </c>
@@ -16457,7 +16450,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>236</v>
       </c>
@@ -16474,7 +16467,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
         <v>375</v>
       </c>
@@ -16485,7 +16478,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>194</v>
       </c>
@@ -16505,7 +16498,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>2</v>
       </c>
@@ -16519,7 +16512,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>0</v>
       </c>
@@ -16533,7 +16526,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>71</v>
       </c>
@@ -16547,7 +16540,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>161</v>
       </c>
@@ -16567,7 +16560,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -16581,7 +16574,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>2</v>
       </c>
@@ -16595,7 +16588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>448</v>
       </c>
@@ -16615,7 +16608,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>3</v>
       </c>
@@ -16629,7 +16622,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>2</v>
       </c>
@@ -16643,7 +16636,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>0</v>
       </c>
@@ -16657,7 +16650,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>71</v>
       </c>
@@ -16671,7 +16664,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>423</v>
       </c>
@@ -16691,7 +16684,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>3</v>
       </c>
@@ -16705,7 +16698,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>2</v>
       </c>
@@ -16719,7 +16712,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>0</v>
       </c>
@@ -16733,7 +16726,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>71</v>
       </c>
@@ -16747,7 +16740,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>65</v>
       </c>
@@ -16767,7 +16760,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>37</v>
       </c>
@@ -16781,7 +16774,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>4</v>
       </c>
@@ -16795,7 +16788,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>3</v>
       </c>
@@ -16809,7 +16802,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>2</v>
       </c>
@@ -16823,7 +16816,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>0</v>
       </c>
@@ -16837,7 +16830,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>71</v>
       </c>
@@ -16851,7 +16844,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>245</v>
       </c>
@@ -16871,7 +16864,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>2</v>
       </c>
@@ -16885,7 +16878,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>465</v>
       </c>
@@ -16905,7 +16898,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>3</v>
       </c>
@@ -16919,7 +16912,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>2</v>
       </c>
@@ -16933,7 +16926,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>0</v>
       </c>
@@ -16947,7 +16940,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>71</v>
       </c>
@@ -16961,7 +16954,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>233</v>
       </c>
@@ -16981,7 +16974,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>116</v>
       </c>
@@ -16995,7 +16988,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>116</v>
       </c>

--- a/Tennis/WTA Tour/Kim Clijsters.xlsx
+++ b/Tennis/WTA Tour/Kim Clijsters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3365" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F459B88-A7EA-44AB-8347-709CC15D02D0}"/>
+  <xr:revisionPtr revIDLastSave="3369" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96A85CD4-C2AB-4C3C-B3D4-BB54D5AB4203}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="28800" windowHeight="15285" firstSheet="18" activeTab="25" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="2" activeTab="25" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="1997" sheetId="3" r:id="rId1"/>
@@ -4429,14 +4429,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
@@ -4471,8 +4471,8 @@
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -4500,6 +4500,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4810,12 +4814,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4906,12 +4910,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -5836,12 +5840,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -6165,12 +6169,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -6233,12 +6237,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -6529,12 +6533,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -7255,12 +7259,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -7770,12 +7774,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -8238,12 +8242,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -8306,12 +8310,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -8373,12 +8377,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -8440,12 +8444,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -8764,12 +8768,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -8831,12 +8835,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -8898,12 +8902,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -8965,12 +8969,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -9032,12 +9036,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -9147,12 +9151,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -9229,17 +9233,17 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9873,12 +9877,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -10672,12 +10676,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -11479,12 +11483,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -12699,12 +12703,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -13827,12 +13831,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -15435,12 +15439,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -15855,12 +15859,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
